--- a/excel/finished/焦化12/CK12-炼焦-1#炉温记录报表（日）copy.xlsx
+++ b/excel/finished/焦化12/CK12-炼焦-1#炉温记录报表（日）copy.xlsx
@@ -10,15 +10,14 @@
     <sheet name="_model" sheetId="1" state="hidden" r:id="rId1"/>
     <sheet name="1炉机侧炉温管控" sheetId="2" r:id="rId2"/>
     <sheet name="1炉焦侧炉温管控" sheetId="3" r:id="rId3"/>
-    <sheet name="_metadata" sheetId="5" r:id="rId4"/>
-    <sheet name="_dictionary" sheetId="6" r:id="rId5"/>
+    <sheet name="_metadata" sheetId="4" r:id="rId4"/>
   </sheets>
-  <calcPr calcId="144525" concurrentCalc="0"/>
+  <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="73" uniqueCount="51">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="72" uniqueCount="50">
   <si>
     <t>日期</t>
   </si>
@@ -169,27 +168,24 @@
   <si>
     <t>1#焦侧</t>
   </si>
-  <si>
-    <t>version</t>
-  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="6">
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="176" formatCode="yyyy/m"/>
     <numFmt numFmtId="177" formatCode="yyyy&quot;年&quot;m&quot;月&quot;;@"/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="24">
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="宋体"/>
+      <name val="Arial"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
@@ -197,7 +193,7 @@
       <b/>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="宋体"/>
+      <name val="Arial"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
@@ -208,22 +204,81 @@
     </font>
     <font>
       <sz val="9.7"/>
-      <color rgb="FF000000"/>
       <name val="Consolas"/>
       <charset val="134"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="Arial"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="Arial"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Arial"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
-      <sz val="13"/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="Arial"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
       <color theme="3"/>
-      <name val="宋体"/>
+      <name val="Arial"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
+      <color rgb="FF9C0006"/>
+      <name val="Arial"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Arial"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="Arial"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
@@ -231,45 +286,21 @@
       <b/>
       <sz val="18"/>
       <color theme="3"/>
-      <name val="宋体"/>
+      <name val="Arial"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
       <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
+      <color rgb="FFFF0000"/>
+      <name val="Arial"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
+      <name val="Arial"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
@@ -277,7 +308,7 @@
       <b/>
       <sz val="11"/>
       <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
+      <name val="Arial"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
@@ -285,28 +316,22 @@
       <b/>
       <sz val="11"/>
       <color theme="3"/>
-      <name val="宋体"/>
+      <name val="Arial"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
+      <color rgb="FF9C6500"/>
+      <name val="Arial"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <i/>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="Arial"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
@@ -314,46 +339,16 @@
       <u/>
       <sz val="11"/>
       <color rgb="FF800080"/>
-      <name val="宋体"/>
+      <name val="Arial"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="Arial"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -371,7 +366,37 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799890133365886"/>
+        <fgColor theme="4" tint="0.79985961485641"/>
+        <bgColor theme="4" tint="0.79985961485641"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -383,7 +408,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -401,37 +444,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
+        <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
+        <fgColor theme="7" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -443,79 +462,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
+        <fgColor theme="6" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -533,7 +486,55 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -546,12 +547,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -572,6 +567,58 @@
     </border>
     <border>
       <left style="thin">
+        <color theme="1"/>
+      </left>
+      <right style="thin">
+        <color theme="1"/>
+      </right>
+      <top style="thin">
+        <color theme="1"/>
+      </top>
+      <bottom style="thin">
+        <color theme="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color theme="1"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color theme="1"/>
+      </top>
+      <bottom style="thin">
+        <color theme="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="1"/>
+      </top>
+      <bottom style="thin">
+        <color theme="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color theme="1"/>
+      </right>
+      <top style="thin">
+        <color theme="1"/>
+      </top>
+      <bottom style="thin">
+        <color theme="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
         <color auto="1"/>
       </left>
       <right style="thin">
@@ -587,14 +634,16 @@
     </border>
     <border>
       <left style="thin">
-        <color auto="1"/>
+        <color rgb="FF7F7F7F"/>
       </left>
-      <right/>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
       <top style="thin">
-        <color auto="1"/>
+        <color rgb="FF7F7F7F"/>
       </top>
       <bottom style="thin">
-        <color auto="1"/>
+        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -602,56 +651,10 @@
       <left/>
       <right/>
       <top style="thin">
-        <color auto="1"/>
+        <color theme="4"/>
       </top>
-      <bottom style="thin">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="thin">
-        <color auto="1"/>
-      </right>
-      <top style="thin">
-        <color auto="1"/>
-      </top>
-      <bottom style="thin">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color theme="1"/>
-      </left>
-      <right style="thin">
-        <color theme="1"/>
-      </right>
-      <top style="thin">
-        <color theme="1"/>
-      </top>
-      <bottom style="thin">
-        <color theme="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
+      <bottom style="double">
         <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -671,17 +674,35 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color rgb="FFB2B2B2"/>
       </left>
       <right style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color rgb="FFB2B2B2"/>
       </right>
       <top style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color rgb="FFB2B2B2"/>
       </top>
       <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -709,42 +730,16 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="51">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="4" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -753,149 +748,147 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="12" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="10" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="5" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="13" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="5" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="13" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="3" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="8" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+  </cellStyleXfs>
+  <cellXfs count="28">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0">
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-  </cellStyleXfs>
-  <cellXfs count="29">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -907,13 +900,13 @@
     <xf numFmtId="176" fontId="1" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="1" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
     <xf numFmtId="176" fontId="1" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -928,47 +921,44 @@
     <xf numFmtId="177" fontId="1" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="50" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="50" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="50" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="50" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="50" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="50" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="14" fontId="0" fillId="2" borderId="1" xfId="50" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="14" fontId="0" fillId="2" borderId="1" xfId="50" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="50" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="50" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="50" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="50" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="50" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="50" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="50" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="1" fontId="0" fillId="0" borderId="1" xfId="50" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="5" xfId="50" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="1" fontId="0" fillId="0" borderId="5" xfId="50" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="1" xfId="50" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="1" fontId="0" fillId="0" borderId="1" xfId="50" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="1" xfId="50" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="50" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="50" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="1" xfId="50" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="1" xfId="50" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="50" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="50" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="50" applyNumberFormat="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -1025,7 +1015,15 @@
     <cellStyle name="常规 2" xfId="49"/>
     <cellStyle name="常规 3" xfId="50"/>
   </cellStyles>
-  <dxfs count="2">
+  <dxfs count="5">
+    <dxf>
+      <font>
+        <color rgb="FF00B050"/>
+      </font>
+      <fill>
+        <patternFill patternType="none"/>
+      </fill>
+    </dxf>
     <dxf>
       <font>
         <color rgb="FFFF0000"/>
@@ -1036,11 +1034,21 @@
     </dxf>
     <dxf>
       <font>
-        <color rgb="FFFFFF00"/>
+        <color indexed="2"/>
       </font>
       <fill>
         <patternFill patternType="none"/>
       </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFF0000"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF00B050"/>
+      </font>
     </dxf>
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -1096,73 +1104,13 @@
     <a:fontScheme name="Office">
       <a:majorFont>
         <a:latin typeface="Calibri Light"/>
-        <a:ea typeface=""/>
-        <a:cs typeface=""/>
-        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
-        <a:font script="Hang" typeface="맑은 고딕"/>
-        <a:font script="Hans" typeface="宋体"/>
-        <a:font script="Hant" typeface="新細明體"/>
-        <a:font script="Arab" typeface="Times New Roman"/>
-        <a:font script="Hebr" typeface="Times New Roman"/>
-        <a:font script="Thai" typeface="Tahoma"/>
-        <a:font script="Ethi" typeface="Nyala"/>
-        <a:font script="Beng" typeface="Vrinda"/>
-        <a:font script="Gujr" typeface="Shruti"/>
-        <a:font script="Khmr" typeface="MoolBoran"/>
-        <a:font script="Knda" typeface="Tunga"/>
-        <a:font script="Guru" typeface="Raavi"/>
-        <a:font script="Cans" typeface="Euphemia"/>
-        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
-        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
-        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
-        <a:font script="Thaa" typeface="MV Boli"/>
-        <a:font script="Deva" typeface="Mangal"/>
-        <a:font script="Telu" typeface="Gautami"/>
-        <a:font script="Taml" typeface="Latha"/>
-        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
-        <a:font script="Orya" typeface="Kalinga"/>
-        <a:font script="Mlym" typeface="Kartika"/>
-        <a:font script="Laoo" typeface="DokChampa"/>
-        <a:font script="Sinh" typeface="Iskoola Pota"/>
-        <a:font script="Mong" typeface="Mongolian Baiti"/>
-        <a:font script="Viet" typeface="Times New Roman"/>
-        <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:ea typeface="Arial"/>
+        <a:cs typeface="Arial"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri"/>
-        <a:ea typeface=""/>
-        <a:cs typeface=""/>
-        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
-        <a:font script="Hang" typeface="맑은 고딕"/>
-        <a:font script="Hans" typeface="宋体"/>
-        <a:font script="Hant" typeface="新細明體"/>
-        <a:font script="Arab" typeface="Arial"/>
-        <a:font script="Hebr" typeface="Arial"/>
-        <a:font script="Thai" typeface="Tahoma"/>
-        <a:font script="Ethi" typeface="Nyala"/>
-        <a:font script="Beng" typeface="Vrinda"/>
-        <a:font script="Gujr" typeface="Shruti"/>
-        <a:font script="Khmr" typeface="DaunPenh"/>
-        <a:font script="Knda" typeface="Tunga"/>
-        <a:font script="Guru" typeface="Raavi"/>
-        <a:font script="Cans" typeface="Euphemia"/>
-        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
-        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
-        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
-        <a:font script="Thaa" typeface="MV Boli"/>
-        <a:font script="Deva" typeface="Mangal"/>
-        <a:font script="Telu" typeface="Gautami"/>
-        <a:font script="Taml" typeface="Latha"/>
-        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
-        <a:font script="Orya" typeface="Kalinga"/>
-        <a:font script="Mlym" typeface="Kartika"/>
-        <a:font script="Laoo" typeface="DokChampa"/>
-        <a:font script="Sinh" typeface="Iskoola Pota"/>
-        <a:font script="Mong" typeface="Mongolian Baiti"/>
-        <a:font script="Viet" typeface="Arial"/>
-        <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:ea typeface="Arial"/>
+        <a:cs typeface="Arial"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -1170,7 +1118,7 @@
         <a:solidFill>
           <a:schemeClr val="phClr"/>
         </a:solidFill>
-        <a:gradFill rotWithShape="1">
+        <a:gradFill>
           <a:gsLst>
             <a:gs pos="0">
               <a:schemeClr val="phClr">
@@ -1196,7 +1144,7 @@
           </a:gsLst>
           <a:lin ang="5400000" scaled="0"/>
         </a:gradFill>
-        <a:gradFill rotWithShape="1">
+        <a:gradFill>
           <a:gsLst>
             <a:gs pos="0">
               <a:schemeClr val="phClr">
@@ -1248,16 +1196,28 @@
       </a:lnStyleLst>
       <a:effectStyleLst>
         <a:effectStyle>
-          <a:effectLst/>
-        </a:effectStyle>
-        <a:effectStyle>
-          <a:effectLst/>
+          <a:effectLst>
+            <a:outerShdw blurRad="40000" dist="20000" dir="5400000" rotWithShape="0">
+              <a:srgbClr val="000000">
+                <a:alpha val="38000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
         </a:effectStyle>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
               <a:srgbClr val="000000">
-                <a:alpha val="63000"/>
+                <a:alpha val="35000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst>
+            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
+              <a:srgbClr val="000000">
+                <a:alpha val="35000"/>
               </a:srgbClr>
             </a:outerShdw>
           </a:effectLst>
@@ -1273,7 +1233,7 @@
             <a:satMod val="170000"/>
           </a:schemeClr>
         </a:solidFill>
-        <a:gradFill rotWithShape="1">
+        <a:gradFill>
           <a:gsLst>
             <a:gs pos="0">
               <a:schemeClr val="phClr">
@@ -1312,18 +1272,18 @@
   <sheetPr/>
   <dimension ref="A1:Q74"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F1" sqref="F1"/>
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="C10" sqref="C10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
   <cols>
     <col min="1" max="1" width="14" style="14" customWidth="1"/>
-    <col min="2" max="7" width="11.3666666666667" style="14" customWidth="1"/>
-    <col min="8" max="8" width="7.725" style="14" customWidth="1"/>
-    <col min="9" max="9" width="8.26666666666667" style="14" customWidth="1"/>
-    <col min="10" max="15" width="11.3666666666667" style="14" customWidth="1"/>
-    <col min="16" max="16" width="7.36666666666667" style="14" customWidth="1"/>
+    <col min="2" max="7" width="11.3333333333333" style="14" customWidth="1"/>
+    <col min="8" max="8" width="7.75" style="14" customWidth="1"/>
+    <col min="9" max="9" width="8.25" style="14" customWidth="1"/>
+    <col min="10" max="15" width="11.3333333333333" style="14" customWidth="1"/>
+    <col min="16" max="16" width="7.33333333333333" style="14" customWidth="1"/>
     <col min="17" max="18" width="9" style="14"/>
     <col min="19" max="16384" width="9" style="15"/>
   </cols>
@@ -1353,7 +1313,7 @@
       <c r="P1" s="18"/>
       <c r="Q1" s="25"/>
     </row>
-    <row r="2" s="14" customFormat="1" ht="13.5" spans="1:17">
+    <row r="2" s="14" customFormat="1" spans="1:17">
       <c r="A2" s="16"/>
       <c r="B2" s="19" t="s">
         <v>3</v>
@@ -1376,7 +1336,7 @@
       <c r="P2" s="16"/>
       <c r="Q2" s="16"/>
     </row>
-    <row r="3" s="14" customFormat="1" ht="13.5" spans="1:17">
+    <row r="3" s="14" customFormat="1" spans="1:17">
       <c r="A3" s="16" t="s">
         <v>5</v>
       </c>
@@ -1474,7 +1434,7 @@
       <c r="P4" s="16"/>
       <c r="Q4" s="16"/>
     </row>
-    <row r="5" s="14" customFormat="1" ht="13.5" spans="1:17">
+    <row r="5" s="14" customFormat="1" spans="1:17">
       <c r="A5" s="21"/>
       <c r="B5" s="22"/>
       <c r="C5" s="22"/>
@@ -1482,12 +1442,12 @@
       <c r="E5" s="22"/>
       <c r="F5" s="22"/>
       <c r="G5" s="22"/>
-      <c r="H5" s="22" t="str">
+      <c r="H5" s="23" t="str">
         <f t="shared" ref="H5:H36" si="0">IFERROR(INT(AVERAGE(B5:G5)),"")</f>
         <v/>
       </c>
       <c r="I5" s="22" t="str">
-        <f t="shared" ref="I5:I36" si="1">IFERROR(H5-H$65,"")</f>
+        <f t="shared" ref="I5:I60" si="1">IFERROR(H5-H$66,"")</f>
         <v/>
       </c>
       <c r="J5" s="22"/>
@@ -1496,16 +1456,16 @@
       <c r="M5" s="22"/>
       <c r="N5" s="22"/>
       <c r="O5" s="22"/>
-      <c r="P5" s="22" t="str">
+      <c r="P5" s="23" t="str">
         <f t="shared" ref="P5:P36" si="2">IFERROR(INT(AVERAGE(J5:O5)),"")</f>
         <v/>
       </c>
-      <c r="Q5" s="22" t="str">
-        <f t="shared" ref="Q5:Q36" si="3">IFERROR(P5-P$65,"")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="6" s="14" customFormat="1" ht="13.5" spans="1:17">
+      <c r="Q5" s="23" t="str">
+        <f t="shared" ref="Q5:Q60" si="3">IFERROR(P5-P$66,"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="6" s="14" customFormat="1" spans="1:17">
       <c r="A6" s="21"/>
       <c r="B6" s="22"/>
       <c r="C6" s="22"/>
@@ -1513,7 +1473,7 @@
       <c r="E6" s="22"/>
       <c r="F6" s="22"/>
       <c r="G6" s="22"/>
-      <c r="H6" s="22" t="str">
+      <c r="H6" s="23" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
@@ -1527,16 +1487,16 @@
       <c r="M6" s="22"/>
       <c r="N6" s="22"/>
       <c r="O6" s="22"/>
-      <c r="P6" s="22" t="str">
+      <c r="P6" s="23" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="Q6" s="22" t="str">
+      <c r="Q6" s="23" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
     </row>
-    <row r="7" s="14" customFormat="1" ht="13.5" spans="1:17">
+    <row r="7" s="14" customFormat="1" spans="1:17">
       <c r="A7" s="21"/>
       <c r="B7" s="22"/>
       <c r="C7" s="22"/>
@@ -1544,7 +1504,7 @@
       <c r="E7" s="22"/>
       <c r="F7" s="22"/>
       <c r="G7" s="22"/>
-      <c r="H7" s="22" t="str">
+      <c r="H7" s="23" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
@@ -1558,16 +1518,16 @@
       <c r="M7" s="22"/>
       <c r="N7" s="22"/>
       <c r="O7" s="22"/>
-      <c r="P7" s="22" t="str">
+      <c r="P7" s="23" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="Q7" s="22" t="str">
+      <c r="Q7" s="23" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
     </row>
-    <row r="8" s="14" customFormat="1" ht="13.5" spans="1:17">
+    <row r="8" s="14" customFormat="1" spans="1:17">
       <c r="A8" s="21"/>
       <c r="B8" s="22"/>
       <c r="C8" s="22"/>
@@ -1575,7 +1535,7 @@
       <c r="E8" s="22"/>
       <c r="F8" s="22"/>
       <c r="G8" s="22"/>
-      <c r="H8" s="22" t="str">
+      <c r="H8" s="23" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
@@ -1589,16 +1549,16 @@
       <c r="M8" s="22"/>
       <c r="N8" s="22"/>
       <c r="O8" s="22"/>
-      <c r="P8" s="22" t="str">
+      <c r="P8" s="23" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="Q8" s="22" t="str">
+      <c r="Q8" s="23" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
     </row>
-    <row r="9" s="14" customFormat="1" ht="13.5" spans="1:17">
+    <row r="9" s="14" customFormat="1" spans="1:17">
       <c r="A9" s="21"/>
       <c r="B9" s="22"/>
       <c r="C9" s="22"/>
@@ -1606,7 +1566,7 @@
       <c r="E9" s="22"/>
       <c r="F9" s="22"/>
       <c r="G9" s="22"/>
-      <c r="H9" s="22" t="str">
+      <c r="H9" s="23" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
@@ -1620,16 +1580,16 @@
       <c r="M9" s="22"/>
       <c r="N9" s="22"/>
       <c r="O9" s="22"/>
-      <c r="P9" s="22" t="str">
+      <c r="P9" s="23" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="Q9" s="22" t="str">
+      <c r="Q9" s="23" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
     </row>
-    <row r="10" s="14" customFormat="1" ht="13.5" spans="1:17">
+    <row r="10" s="14" customFormat="1" spans="1:17">
       <c r="A10" s="21"/>
       <c r="B10" s="22"/>
       <c r="C10" s="22"/>
@@ -1637,7 +1597,7 @@
       <c r="E10" s="22"/>
       <c r="F10" s="22"/>
       <c r="G10" s="22"/>
-      <c r="H10" s="22" t="str">
+      <c r="H10" s="23" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
@@ -1651,16 +1611,16 @@
       <c r="M10" s="22"/>
       <c r="N10" s="22"/>
       <c r="O10" s="22"/>
-      <c r="P10" s="22" t="str">
+      <c r="P10" s="23" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="Q10" s="22" t="str">
+      <c r="Q10" s="23" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
     </row>
-    <row r="11" s="14" customFormat="1" ht="13.5" spans="1:17">
+    <row r="11" s="14" customFormat="1" spans="1:17">
       <c r="A11" s="21"/>
       <c r="B11" s="22"/>
       <c r="C11" s="22"/>
@@ -1668,7 +1628,7 @@
       <c r="E11" s="22"/>
       <c r="F11" s="22"/>
       <c r="G11" s="22"/>
-      <c r="H11" s="22" t="str">
+      <c r="H11" s="23" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
@@ -1682,16 +1642,16 @@
       <c r="M11" s="22"/>
       <c r="N11" s="22"/>
       <c r="O11" s="22"/>
-      <c r="P11" s="22" t="str">
+      <c r="P11" s="23" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="Q11" s="22" t="str">
+      <c r="Q11" s="23" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
     </row>
-    <row r="12" s="14" customFormat="1" ht="13.5" spans="1:17">
+    <row r="12" s="14" customFormat="1" spans="1:17">
       <c r="A12" s="21"/>
       <c r="B12" s="22"/>
       <c r="C12" s="22"/>
@@ -1699,7 +1659,7 @@
       <c r="E12" s="22"/>
       <c r="F12" s="22"/>
       <c r="G12" s="22"/>
-      <c r="H12" s="22" t="str">
+      <c r="H12" s="23" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
@@ -1713,16 +1673,16 @@
       <c r="M12" s="22"/>
       <c r="N12" s="22"/>
       <c r="O12" s="22"/>
-      <c r="P12" s="22" t="str">
+      <c r="P12" s="23" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="Q12" s="22" t="str">
+      <c r="Q12" s="23" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
     </row>
-    <row r="13" s="14" customFormat="1" ht="13.5" spans="1:17">
+    <row r="13" s="14" customFormat="1" spans="1:17">
       <c r="A13" s="21"/>
       <c r="B13" s="22"/>
       <c r="C13" s="22"/>
@@ -1730,7 +1690,7 @@
       <c r="E13" s="22"/>
       <c r="F13" s="22"/>
       <c r="G13" s="22"/>
-      <c r="H13" s="22" t="str">
+      <c r="H13" s="23" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
@@ -1744,16 +1704,16 @@
       <c r="M13" s="22"/>
       <c r="N13" s="22"/>
       <c r="O13" s="22"/>
-      <c r="P13" s="22" t="str">
+      <c r="P13" s="23" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="Q13" s="22" t="str">
+      <c r="Q13" s="23" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
     </row>
-    <row r="14" s="14" customFormat="1" ht="13.5" spans="1:17">
+    <row r="14" s="14" customFormat="1" spans="1:17">
       <c r="A14" s="21"/>
       <c r="B14" s="22"/>
       <c r="C14" s="22"/>
@@ -1761,7 +1721,7 @@
       <c r="E14" s="22"/>
       <c r="F14" s="22"/>
       <c r="G14" s="22"/>
-      <c r="H14" s="22" t="str">
+      <c r="H14" s="23" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
@@ -1775,16 +1735,16 @@
       <c r="M14" s="22"/>
       <c r="N14" s="22"/>
       <c r="O14" s="22"/>
-      <c r="P14" s="22" t="str">
+      <c r="P14" s="23" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="Q14" s="22" t="str">
+      <c r="Q14" s="23" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
     </row>
-    <row r="15" s="14" customFormat="1" ht="13.5" spans="1:17">
+    <row r="15" s="14" customFormat="1" spans="1:17">
       <c r="A15" s="21"/>
       <c r="B15" s="22"/>
       <c r="C15" s="22"/>
@@ -1792,7 +1752,7 @@
       <c r="E15" s="22"/>
       <c r="F15" s="22"/>
       <c r="G15" s="22"/>
-      <c r="H15" s="22" t="str">
+      <c r="H15" s="23" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
@@ -1806,16 +1766,16 @@
       <c r="M15" s="22"/>
       <c r="N15" s="22"/>
       <c r="O15" s="22"/>
-      <c r="P15" s="22" t="str">
+      <c r="P15" s="23" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="Q15" s="22" t="str">
+      <c r="Q15" s="23" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
     </row>
-    <row r="16" s="14" customFormat="1" ht="13.5" spans="1:17">
+    <row r="16" s="14" customFormat="1" spans="1:17">
       <c r="A16" s="21"/>
       <c r="B16" s="22"/>
       <c r="C16" s="22"/>
@@ -1823,7 +1783,7 @@
       <c r="E16" s="22"/>
       <c r="F16" s="22"/>
       <c r="G16" s="22"/>
-      <c r="H16" s="22" t="str">
+      <c r="H16" s="23" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
@@ -1837,16 +1797,16 @@
       <c r="M16" s="22"/>
       <c r="N16" s="22"/>
       <c r="O16" s="22"/>
-      <c r="P16" s="22" t="str">
+      <c r="P16" s="23" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="Q16" s="22" t="str">
+      <c r="Q16" s="23" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
     </row>
-    <row r="17" s="14" customFormat="1" ht="13.5" spans="1:17">
+    <row r="17" s="14" customFormat="1" spans="1:17">
       <c r="A17" s="21"/>
       <c r="B17" s="22"/>
       <c r="C17" s="22"/>
@@ -1854,7 +1814,7 @@
       <c r="E17" s="22"/>
       <c r="F17" s="22"/>
       <c r="G17" s="22"/>
-      <c r="H17" s="22" t="str">
+      <c r="H17" s="23" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
@@ -1868,16 +1828,16 @@
       <c r="M17" s="22"/>
       <c r="N17" s="22"/>
       <c r="O17" s="22"/>
-      <c r="P17" s="22" t="str">
+      <c r="P17" s="23" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="Q17" s="22" t="str">
+      <c r="Q17" s="23" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
     </row>
-    <row r="18" s="14" customFormat="1" ht="13.5" spans="1:17">
+    <row r="18" s="14" customFormat="1" spans="1:17">
       <c r="A18" s="21"/>
       <c r="B18" s="22"/>
       <c r="C18" s="22"/>
@@ -1885,7 +1845,7 @@
       <c r="E18" s="22"/>
       <c r="F18" s="22"/>
       <c r="G18" s="22"/>
-      <c r="H18" s="22" t="str">
+      <c r="H18" s="23" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
@@ -1899,16 +1859,16 @@
       <c r="M18" s="22"/>
       <c r="N18" s="22"/>
       <c r="O18" s="22"/>
-      <c r="P18" s="22" t="str">
+      <c r="P18" s="23" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="Q18" s="22" t="str">
+      <c r="Q18" s="23" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
     </row>
-    <row r="19" s="14" customFormat="1" ht="13.5" spans="1:17">
+    <row r="19" s="14" customFormat="1" spans="1:17">
       <c r="A19" s="21"/>
       <c r="B19" s="22"/>
       <c r="C19" s="22"/>
@@ -1916,7 +1876,7 @@
       <c r="E19" s="22"/>
       <c r="F19" s="22"/>
       <c r="G19" s="22"/>
-      <c r="H19" s="22" t="str">
+      <c r="H19" s="23" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
@@ -1930,16 +1890,16 @@
       <c r="M19" s="22"/>
       <c r="N19" s="22"/>
       <c r="O19" s="22"/>
-      <c r="P19" s="22" t="str">
+      <c r="P19" s="23" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="Q19" s="22" t="str">
+      <c r="Q19" s="23" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
     </row>
-    <row r="20" s="14" customFormat="1" ht="13.5" spans="1:17">
+    <row r="20" s="14" customFormat="1" spans="1:17">
       <c r="A20" s="21"/>
       <c r="B20" s="22"/>
       <c r="C20" s="22"/>
@@ -1947,7 +1907,7 @@
       <c r="E20" s="22"/>
       <c r="F20" s="22"/>
       <c r="G20" s="22"/>
-      <c r="H20" s="22" t="str">
+      <c r="H20" s="23" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
@@ -1961,16 +1921,16 @@
       <c r="M20" s="22"/>
       <c r="N20" s="22"/>
       <c r="O20" s="22"/>
-      <c r="P20" s="22" t="str">
+      <c r="P20" s="23" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="Q20" s="22" t="str">
+      <c r="Q20" s="23" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
     </row>
-    <row r="21" s="14" customFormat="1" ht="13.5" spans="1:17">
+    <row r="21" s="14" customFormat="1" spans="1:17">
       <c r="A21" s="21"/>
       <c r="B21" s="22"/>
       <c r="C21" s="22"/>
@@ -1978,7 +1938,7 @@
       <c r="E21" s="22"/>
       <c r="F21" s="22"/>
       <c r="G21" s="22"/>
-      <c r="H21" s="22" t="str">
+      <c r="H21" s="23" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
@@ -1992,16 +1952,16 @@
       <c r="M21" s="22"/>
       <c r="N21" s="22"/>
       <c r="O21" s="22"/>
-      <c r="P21" s="22" t="str">
+      <c r="P21" s="23" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="Q21" s="22" t="str">
+      <c r="Q21" s="23" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
     </row>
-    <row r="22" s="14" customFormat="1" ht="13.5" spans="1:17">
+    <row r="22" s="14" customFormat="1" spans="1:17">
       <c r="A22" s="21"/>
       <c r="B22" s="22"/>
       <c r="C22" s="22"/>
@@ -2009,7 +1969,7 @@
       <c r="E22" s="22"/>
       <c r="F22" s="22"/>
       <c r="G22" s="22"/>
-      <c r="H22" s="22" t="str">
+      <c r="H22" s="23" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
@@ -2023,16 +1983,16 @@
       <c r="M22" s="22"/>
       <c r="N22" s="22"/>
       <c r="O22" s="22"/>
-      <c r="P22" s="22" t="str">
+      <c r="P22" s="23" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="Q22" s="22" t="str">
+      <c r="Q22" s="23" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
     </row>
-    <row r="23" s="14" customFormat="1" ht="13.5" spans="1:17">
+    <row r="23" s="14" customFormat="1" spans="1:17">
       <c r="A23" s="21"/>
       <c r="B23" s="22"/>
       <c r="C23" s="22"/>
@@ -2040,7 +2000,7 @@
       <c r="E23" s="22"/>
       <c r="F23" s="22"/>
       <c r="G23" s="22"/>
-      <c r="H23" s="22" t="str">
+      <c r="H23" s="23" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
@@ -2054,16 +2014,16 @@
       <c r="M23" s="22"/>
       <c r="N23" s="22"/>
       <c r="O23" s="22"/>
-      <c r="P23" s="22" t="str">
+      <c r="P23" s="23" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="Q23" s="22" t="str">
+      <c r="Q23" s="23" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
     </row>
-    <row r="24" s="14" customFormat="1" ht="13.5" spans="1:17">
+    <row r="24" s="14" customFormat="1" spans="1:17">
       <c r="A24" s="21"/>
       <c r="B24" s="22"/>
       <c r="C24" s="22"/>
@@ -2071,7 +2031,7 @@
       <c r="E24" s="22"/>
       <c r="F24" s="22"/>
       <c r="G24" s="22"/>
-      <c r="H24" s="22" t="str">
+      <c r="H24" s="23" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
@@ -2085,16 +2045,16 @@
       <c r="M24" s="22"/>
       <c r="N24" s="22"/>
       <c r="O24" s="22"/>
-      <c r="P24" s="22" t="str">
+      <c r="P24" s="23" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="Q24" s="22" t="str">
+      <c r="Q24" s="23" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
     </row>
-    <row r="25" s="14" customFormat="1" ht="13.5" spans="1:17">
+    <row r="25" s="14" customFormat="1" spans="1:17">
       <c r="A25" s="21"/>
       <c r="B25" s="22"/>
       <c r="C25" s="22"/>
@@ -2102,7 +2062,7 @@
       <c r="E25" s="22"/>
       <c r="F25" s="22"/>
       <c r="G25" s="22"/>
-      <c r="H25" s="22" t="str">
+      <c r="H25" s="23" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
@@ -2116,16 +2076,16 @@
       <c r="M25" s="22"/>
       <c r="N25" s="22"/>
       <c r="O25" s="22"/>
-      <c r="P25" s="22" t="str">
+      <c r="P25" s="23" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="Q25" s="22" t="str">
+      <c r="Q25" s="23" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
     </row>
-    <row r="26" s="14" customFormat="1" ht="13.5" spans="1:17">
+    <row r="26" s="14" customFormat="1" spans="1:17">
       <c r="A26" s="21"/>
       <c r="B26" s="22"/>
       <c r="C26" s="22"/>
@@ -2133,7 +2093,7 @@
       <c r="E26" s="22"/>
       <c r="F26" s="22"/>
       <c r="G26" s="22"/>
-      <c r="H26" s="22" t="str">
+      <c r="H26" s="23" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
@@ -2147,16 +2107,16 @@
       <c r="M26" s="22"/>
       <c r="N26" s="22"/>
       <c r="O26" s="22"/>
-      <c r="P26" s="22" t="str">
+      <c r="P26" s="23" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="Q26" s="22" t="str">
+      <c r="Q26" s="23" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
     </row>
-    <row r="27" s="14" customFormat="1" ht="13.5" spans="1:17">
+    <row r="27" s="14" customFormat="1" spans="1:17">
       <c r="A27" s="21"/>
       <c r="B27" s="22"/>
       <c r="C27" s="22"/>
@@ -2164,7 +2124,7 @@
       <c r="E27" s="22"/>
       <c r="F27" s="22"/>
       <c r="G27" s="22"/>
-      <c r="H27" s="22" t="str">
+      <c r="H27" s="23" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
@@ -2178,16 +2138,16 @@
       <c r="M27" s="22"/>
       <c r="N27" s="22"/>
       <c r="O27" s="22"/>
-      <c r="P27" s="22" t="str">
+      <c r="P27" s="23" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="Q27" s="22" t="str">
+      <c r="Q27" s="23" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
     </row>
-    <row r="28" s="14" customFormat="1" ht="13.5" spans="1:17">
+    <row r="28" s="14" customFormat="1" spans="1:17">
       <c r="A28" s="21"/>
       <c r="B28" s="22"/>
       <c r="C28" s="22"/>
@@ -2195,7 +2155,7 @@
       <c r="E28" s="22"/>
       <c r="F28" s="22"/>
       <c r="G28" s="22"/>
-      <c r="H28" s="22" t="str">
+      <c r="H28" s="23" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
@@ -2209,16 +2169,16 @@
       <c r="M28" s="22"/>
       <c r="N28" s="22"/>
       <c r="O28" s="22"/>
-      <c r="P28" s="22" t="str">
+      <c r="P28" s="23" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="Q28" s="22" t="str">
+      <c r="Q28" s="23" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
     </row>
-    <row r="29" s="14" customFormat="1" ht="13.5" spans="1:17">
+    <row r="29" s="14" customFormat="1" spans="1:17">
       <c r="A29" s="21"/>
       <c r="B29" s="22"/>
       <c r="C29" s="22"/>
@@ -2226,7 +2186,7 @@
       <c r="E29" s="22"/>
       <c r="F29" s="22"/>
       <c r="G29" s="22"/>
-      <c r="H29" s="22" t="str">
+      <c r="H29" s="23" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
@@ -2240,16 +2200,16 @@
       <c r="M29" s="22"/>
       <c r="N29" s="22"/>
       <c r="O29" s="22"/>
-      <c r="P29" s="22" t="str">
+      <c r="P29" s="23" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="Q29" s="22" t="str">
+      <c r="Q29" s="23" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
     </row>
-    <row r="30" s="14" customFormat="1" ht="13.5" spans="1:17">
+    <row r="30" s="14" customFormat="1" spans="1:17">
       <c r="A30" s="21"/>
       <c r="B30" s="22"/>
       <c r="C30" s="22"/>
@@ -2257,7 +2217,7 @@
       <c r="E30" s="22"/>
       <c r="F30" s="22"/>
       <c r="G30" s="22"/>
-      <c r="H30" s="22" t="str">
+      <c r="H30" s="23" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
@@ -2271,16 +2231,16 @@
       <c r="M30" s="22"/>
       <c r="N30" s="22"/>
       <c r="O30" s="22"/>
-      <c r="P30" s="22" t="str">
+      <c r="P30" s="23" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="Q30" s="22" t="str">
+      <c r="Q30" s="23" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
     </row>
-    <row r="31" s="14" customFormat="1" ht="13.5" spans="1:17">
+    <row r="31" s="14" customFormat="1" spans="1:17">
       <c r="A31" s="21"/>
       <c r="B31" s="22"/>
       <c r="C31" s="22"/>
@@ -2288,7 +2248,7 @@
       <c r="E31" s="22"/>
       <c r="F31" s="22"/>
       <c r="G31" s="22"/>
-      <c r="H31" s="22" t="str">
+      <c r="H31" s="23" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
@@ -2302,16 +2262,16 @@
       <c r="M31" s="22"/>
       <c r="N31" s="22"/>
       <c r="O31" s="22"/>
-      <c r="P31" s="22" t="str">
+      <c r="P31" s="23" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="Q31" s="22" t="str">
+      <c r="Q31" s="23" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
     </row>
-    <row r="32" s="14" customFormat="1" ht="13.5" spans="1:17">
+    <row r="32" s="14" customFormat="1" spans="1:17">
       <c r="A32" s="21"/>
       <c r="B32" s="22"/>
       <c r="C32" s="22"/>
@@ -2319,7 +2279,7 @@
       <c r="E32" s="22"/>
       <c r="F32" s="22"/>
       <c r="G32" s="22"/>
-      <c r="H32" s="22" t="str">
+      <c r="H32" s="23" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
@@ -2333,16 +2293,16 @@
       <c r="M32" s="22"/>
       <c r="N32" s="22"/>
       <c r="O32" s="22"/>
-      <c r="P32" s="22" t="str">
+      <c r="P32" s="23" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="Q32" s="22" t="str">
+      <c r="Q32" s="23" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
     </row>
-    <row r="33" s="14" customFormat="1" ht="13.5" spans="1:17">
+    <row r="33" s="14" customFormat="1" spans="1:17">
       <c r="A33" s="21"/>
       <c r="B33" s="22"/>
       <c r="C33" s="22"/>
@@ -2350,7 +2310,7 @@
       <c r="E33" s="22"/>
       <c r="F33" s="22"/>
       <c r="G33" s="22"/>
-      <c r="H33" s="22" t="str">
+      <c r="H33" s="23" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
@@ -2364,16 +2324,16 @@
       <c r="M33" s="22"/>
       <c r="N33" s="22"/>
       <c r="O33" s="22"/>
-      <c r="P33" s="22" t="str">
+      <c r="P33" s="23" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="Q33" s="22" t="str">
+      <c r="Q33" s="23" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
     </row>
-    <row r="34" s="14" customFormat="1" ht="13.5" spans="1:17">
+    <row r="34" s="14" customFormat="1" spans="1:17">
       <c r="A34" s="21"/>
       <c r="B34" s="22"/>
       <c r="C34" s="22"/>
@@ -2381,7 +2341,7 @@
       <c r="E34" s="22"/>
       <c r="F34" s="22"/>
       <c r="G34" s="22"/>
-      <c r="H34" s="22" t="str">
+      <c r="H34" s="23" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
@@ -2395,16 +2355,16 @@
       <c r="M34" s="22"/>
       <c r="N34" s="22"/>
       <c r="O34" s="22"/>
-      <c r="P34" s="22" t="str">
+      <c r="P34" s="23" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="Q34" s="22" t="str">
+      <c r="Q34" s="23" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
     </row>
-    <row r="35" s="14" customFormat="1" ht="13.5" spans="1:17">
+    <row r="35" s="14" customFormat="1" spans="1:17">
       <c r="A35" s="21"/>
       <c r="B35" s="22"/>
       <c r="C35" s="22"/>
@@ -2412,7 +2372,7 @@
       <c r="E35" s="22"/>
       <c r="F35" s="22"/>
       <c r="G35" s="22"/>
-      <c r="H35" s="22" t="str">
+      <c r="H35" s="23" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
@@ -2426,16 +2386,16 @@
       <c r="M35" s="22"/>
       <c r="N35" s="22"/>
       <c r="O35" s="22"/>
-      <c r="P35" s="22" t="str">
+      <c r="P35" s="23" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="Q35" s="22" t="str">
+      <c r="Q35" s="23" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
     </row>
-    <row r="36" s="14" customFormat="1" ht="13.5" spans="1:17">
+    <row r="36" s="14" customFormat="1" spans="1:17">
       <c r="A36" s="21"/>
       <c r="B36" s="22"/>
       <c r="C36" s="22"/>
@@ -2443,7 +2403,7 @@
       <c r="E36" s="22"/>
       <c r="F36" s="22"/>
       <c r="G36" s="22"/>
-      <c r="H36" s="22" t="str">
+      <c r="H36" s="23" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
@@ -2457,16 +2417,16 @@
       <c r="M36" s="22"/>
       <c r="N36" s="22"/>
       <c r="O36" s="22"/>
-      <c r="P36" s="22" t="str">
+      <c r="P36" s="23" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="Q36" s="22" t="str">
+      <c r="Q36" s="23" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
     </row>
-    <row r="37" s="14" customFormat="1" ht="13.5" spans="1:17">
+    <row r="37" s="14" customFormat="1" spans="1:17">
       <c r="A37" s="21"/>
       <c r="B37" s="22"/>
       <c r="C37" s="22"/>
@@ -2474,12 +2434,12 @@
       <c r="E37" s="22"/>
       <c r="F37" s="22"/>
       <c r="G37" s="22"/>
-      <c r="H37" s="22" t="str">
+      <c r="H37" s="23" t="str">
         <f t="shared" ref="H37:H60" si="4">IFERROR(INT(AVERAGE(B37:G37)),"")</f>
         <v/>
       </c>
       <c r="I37" s="22" t="str">
-        <f t="shared" ref="I37:I60" si="5">IFERROR(H37-H$65,"")</f>
+        <f t="shared" si="1"/>
         <v/>
       </c>
       <c r="J37" s="22"/>
@@ -2488,16 +2448,16 @@
       <c r="M37" s="22"/>
       <c r="N37" s="22"/>
       <c r="O37" s="22"/>
-      <c r="P37" s="22" t="str">
-        <f t="shared" ref="P37:P60" si="6">IFERROR(INT(AVERAGE(J37:O37)),"")</f>
-        <v/>
-      </c>
-      <c r="Q37" s="22" t="str">
-        <f t="shared" ref="Q37:Q60" si="7">IFERROR(P37-P$65,"")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="38" s="14" customFormat="1" ht="13.5" spans="1:17">
+      <c r="P37" s="23" t="str">
+        <f t="shared" ref="P37:P60" si="5">IFERROR(INT(AVERAGE(J37:O37)),"")</f>
+        <v/>
+      </c>
+      <c r="Q37" s="23" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+    </row>
+    <row r="38" s="14" customFormat="1" spans="1:17">
       <c r="A38" s="21"/>
       <c r="B38" s="22"/>
       <c r="C38" s="22"/>
@@ -2505,12 +2465,12 @@
       <c r="E38" s="22"/>
       <c r="F38" s="22"/>
       <c r="G38" s="22"/>
-      <c r="H38" s="22" t="str">
+      <c r="H38" s="23" t="str">
         <f t="shared" si="4"/>
         <v/>
       </c>
       <c r="I38" s="22" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="1"/>
         <v/>
       </c>
       <c r="J38" s="22"/>
@@ -2519,16 +2479,16 @@
       <c r="M38" s="22"/>
       <c r="N38" s="22"/>
       <c r="O38" s="22"/>
-      <c r="P38" s="22" t="str">
-        <f t="shared" si="6"/>
-        <v/>
-      </c>
-      <c r="Q38" s="22" t="str">
-        <f t="shared" si="7"/>
-        <v/>
-      </c>
-    </row>
-    <row r="39" s="14" customFormat="1" ht="13.5" spans="1:17">
+      <c r="P38" s="23" t="str">
+        <f t="shared" si="5"/>
+        <v/>
+      </c>
+      <c r="Q38" s="23" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+    </row>
+    <row r="39" s="14" customFormat="1" spans="1:17">
       <c r="A39" s="21"/>
       <c r="B39" s="22"/>
       <c r="C39" s="22"/>
@@ -2536,12 +2496,12 @@
       <c r="E39" s="22"/>
       <c r="F39" s="22"/>
       <c r="G39" s="22"/>
-      <c r="H39" s="22" t="str">
+      <c r="H39" s="23" t="str">
         <f t="shared" si="4"/>
         <v/>
       </c>
       <c r="I39" s="22" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="1"/>
         <v/>
       </c>
       <c r="J39" s="22"/>
@@ -2550,16 +2510,16 @@
       <c r="M39" s="22"/>
       <c r="N39" s="22"/>
       <c r="O39" s="22"/>
-      <c r="P39" s="22" t="str">
-        <f t="shared" si="6"/>
-        <v/>
-      </c>
-      <c r="Q39" s="22" t="str">
-        <f t="shared" si="7"/>
-        <v/>
-      </c>
-    </row>
-    <row r="40" s="14" customFormat="1" ht="13.5" spans="1:17">
+      <c r="P39" s="23" t="str">
+        <f t="shared" si="5"/>
+        <v/>
+      </c>
+      <c r="Q39" s="23" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+    </row>
+    <row r="40" s="14" customFormat="1" spans="1:17">
       <c r="A40" s="21"/>
       <c r="B40" s="22"/>
       <c r="C40" s="22"/>
@@ -2567,12 +2527,12 @@
       <c r="E40" s="22"/>
       <c r="F40" s="22"/>
       <c r="G40" s="22"/>
-      <c r="H40" s="22" t="str">
+      <c r="H40" s="23" t="str">
         <f t="shared" si="4"/>
         <v/>
       </c>
       <c r="I40" s="22" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="1"/>
         <v/>
       </c>
       <c r="J40" s="22"/>
@@ -2581,16 +2541,16 @@
       <c r="M40" s="22"/>
       <c r="N40" s="22"/>
       <c r="O40" s="22"/>
-      <c r="P40" s="22" t="str">
-        <f t="shared" si="6"/>
-        <v/>
-      </c>
-      <c r="Q40" s="22" t="str">
-        <f t="shared" si="7"/>
-        <v/>
-      </c>
-    </row>
-    <row r="41" s="14" customFormat="1" ht="13.5" spans="1:17">
+      <c r="P40" s="23" t="str">
+        <f t="shared" si="5"/>
+        <v/>
+      </c>
+      <c r="Q40" s="23" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+    </row>
+    <row r="41" s="14" customFormat="1" spans="1:17">
       <c r="A41" s="21"/>
       <c r="B41" s="22"/>
       <c r="C41" s="22"/>
@@ -2598,12 +2558,12 @@
       <c r="E41" s="22"/>
       <c r="F41" s="22"/>
       <c r="G41" s="22"/>
-      <c r="H41" s="22" t="str">
+      <c r="H41" s="23" t="str">
         <f t="shared" si="4"/>
         <v/>
       </c>
       <c r="I41" s="22" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="1"/>
         <v/>
       </c>
       <c r="J41" s="22"/>
@@ -2612,16 +2572,16 @@
       <c r="M41" s="22"/>
       <c r="N41" s="22"/>
       <c r="O41" s="22"/>
-      <c r="P41" s="22" t="str">
-        <f t="shared" si="6"/>
-        <v/>
-      </c>
-      <c r="Q41" s="22" t="str">
-        <f t="shared" si="7"/>
-        <v/>
-      </c>
-    </row>
-    <row r="42" s="14" customFormat="1" ht="13.5" spans="1:17">
+      <c r="P41" s="23" t="str">
+        <f t="shared" si="5"/>
+        <v/>
+      </c>
+      <c r="Q41" s="23" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+    </row>
+    <row r="42" s="14" customFormat="1" spans="1:17">
       <c r="A42" s="21"/>
       <c r="B42" s="22"/>
       <c r="C42" s="22"/>
@@ -2629,12 +2589,12 @@
       <c r="E42" s="22"/>
       <c r="F42" s="22"/>
       <c r="G42" s="22"/>
-      <c r="H42" s="22" t="str">
+      <c r="H42" s="23" t="str">
         <f t="shared" si="4"/>
         <v/>
       </c>
       <c r="I42" s="22" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="1"/>
         <v/>
       </c>
       <c r="J42" s="22"/>
@@ -2643,16 +2603,16 @@
       <c r="M42" s="22"/>
       <c r="N42" s="22"/>
       <c r="O42" s="22"/>
-      <c r="P42" s="22" t="str">
-        <f t="shared" si="6"/>
-        <v/>
-      </c>
-      <c r="Q42" s="22" t="str">
-        <f t="shared" si="7"/>
-        <v/>
-      </c>
-    </row>
-    <row r="43" s="14" customFormat="1" ht="13.5" spans="1:17">
+      <c r="P42" s="23" t="str">
+        <f t="shared" si="5"/>
+        <v/>
+      </c>
+      <c r="Q42" s="23" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+    </row>
+    <row r="43" s="14" customFormat="1" spans="1:17">
       <c r="A43" s="21"/>
       <c r="B43" s="22"/>
       <c r="C43" s="22"/>
@@ -2660,12 +2620,12 @@
       <c r="E43" s="22"/>
       <c r="F43" s="22"/>
       <c r="G43" s="22"/>
-      <c r="H43" s="22" t="str">
+      <c r="H43" s="23" t="str">
         <f t="shared" si="4"/>
         <v/>
       </c>
       <c r="I43" s="22" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="1"/>
         <v/>
       </c>
       <c r="J43" s="22"/>
@@ -2674,16 +2634,16 @@
       <c r="M43" s="22"/>
       <c r="N43" s="22"/>
       <c r="O43" s="22"/>
-      <c r="P43" s="22" t="str">
-        <f t="shared" si="6"/>
-        <v/>
-      </c>
-      <c r="Q43" s="22" t="str">
-        <f t="shared" si="7"/>
-        <v/>
-      </c>
-    </row>
-    <row r="44" s="14" customFormat="1" ht="13.5" spans="1:17">
+      <c r="P43" s="23" t="str">
+        <f t="shared" si="5"/>
+        <v/>
+      </c>
+      <c r="Q43" s="23" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+    </row>
+    <row r="44" s="14" customFormat="1" spans="1:17">
       <c r="A44" s="21"/>
       <c r="B44" s="22"/>
       <c r="C44" s="22"/>
@@ -2691,12 +2651,12 @@
       <c r="E44" s="22"/>
       <c r="F44" s="22"/>
       <c r="G44" s="22"/>
-      <c r="H44" s="22" t="str">
+      <c r="H44" s="23" t="str">
         <f t="shared" si="4"/>
         <v/>
       </c>
       <c r="I44" s="22" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="1"/>
         <v/>
       </c>
       <c r="J44" s="22"/>
@@ -2705,16 +2665,16 @@
       <c r="M44" s="22"/>
       <c r="N44" s="22"/>
       <c r="O44" s="22"/>
-      <c r="P44" s="22" t="str">
-        <f t="shared" si="6"/>
-        <v/>
-      </c>
-      <c r="Q44" s="22" t="str">
-        <f t="shared" si="7"/>
-        <v/>
-      </c>
-    </row>
-    <row r="45" s="14" customFormat="1" ht="13.5" spans="1:17">
+      <c r="P44" s="23" t="str">
+        <f t="shared" si="5"/>
+        <v/>
+      </c>
+      <c r="Q44" s="23" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+    </row>
+    <row r="45" s="14" customFormat="1" spans="1:17">
       <c r="A45" s="21"/>
       <c r="B45" s="22"/>
       <c r="C45" s="22"/>
@@ -2722,12 +2682,12 @@
       <c r="E45" s="22"/>
       <c r="F45" s="22"/>
       <c r="G45" s="22"/>
-      <c r="H45" s="22" t="str">
+      <c r="H45" s="23" t="str">
         <f t="shared" si="4"/>
         <v/>
       </c>
       <c r="I45" s="22" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="1"/>
         <v/>
       </c>
       <c r="J45" s="22"/>
@@ -2736,16 +2696,16 @@
       <c r="M45" s="22"/>
       <c r="N45" s="22"/>
       <c r="O45" s="22"/>
-      <c r="P45" s="22" t="str">
-        <f t="shared" si="6"/>
-        <v/>
-      </c>
-      <c r="Q45" s="22" t="str">
-        <f t="shared" si="7"/>
-        <v/>
-      </c>
-    </row>
-    <row r="46" s="14" customFormat="1" ht="13.5" spans="1:17">
+      <c r="P45" s="23" t="str">
+        <f t="shared" si="5"/>
+        <v/>
+      </c>
+      <c r="Q45" s="23" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+    </row>
+    <row r="46" s="14" customFormat="1" spans="1:17">
       <c r="A46" s="21"/>
       <c r="B46" s="22"/>
       <c r="C46" s="22"/>
@@ -2753,12 +2713,12 @@
       <c r="E46" s="22"/>
       <c r="F46" s="22"/>
       <c r="G46" s="22"/>
-      <c r="H46" s="22" t="str">
+      <c r="H46" s="23" t="str">
         <f t="shared" si="4"/>
         <v/>
       </c>
       <c r="I46" s="22" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="1"/>
         <v/>
       </c>
       <c r="J46" s="22"/>
@@ -2767,16 +2727,16 @@
       <c r="M46" s="22"/>
       <c r="N46" s="22"/>
       <c r="O46" s="22"/>
-      <c r="P46" s="22" t="str">
-        <f t="shared" si="6"/>
-        <v/>
-      </c>
-      <c r="Q46" s="22" t="str">
-        <f t="shared" si="7"/>
-        <v/>
-      </c>
-    </row>
-    <row r="47" s="14" customFormat="1" ht="13.5" spans="1:17">
+      <c r="P46" s="23" t="str">
+        <f t="shared" si="5"/>
+        <v/>
+      </c>
+      <c r="Q46" s="23" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+    </row>
+    <row r="47" s="14" customFormat="1" spans="1:17">
       <c r="A47" s="21"/>
       <c r="B47" s="22"/>
       <c r="C47" s="22"/>
@@ -2784,12 +2744,12 @@
       <c r="E47" s="22"/>
       <c r="F47" s="22"/>
       <c r="G47" s="22"/>
-      <c r="H47" s="22" t="str">
+      <c r="H47" s="23" t="str">
         <f t="shared" si="4"/>
         <v/>
       </c>
       <c r="I47" s="22" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="1"/>
         <v/>
       </c>
       <c r="J47" s="22"/>
@@ -2798,16 +2758,16 @@
       <c r="M47" s="22"/>
       <c r="N47" s="22"/>
       <c r="O47" s="22"/>
-      <c r="P47" s="22" t="str">
-        <f t="shared" si="6"/>
-        <v/>
-      </c>
-      <c r="Q47" s="22" t="str">
-        <f t="shared" si="7"/>
-        <v/>
-      </c>
-    </row>
-    <row r="48" s="14" customFormat="1" ht="13.5" spans="1:17">
+      <c r="P47" s="23" t="str">
+        <f t="shared" si="5"/>
+        <v/>
+      </c>
+      <c r="Q47" s="23" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+    </row>
+    <row r="48" s="14" customFormat="1" spans="1:17">
       <c r="A48" s="21"/>
       <c r="B48" s="22"/>
       <c r="C48" s="22"/>
@@ -2815,12 +2775,12 @@
       <c r="E48" s="22"/>
       <c r="F48" s="22"/>
       <c r="G48" s="22"/>
-      <c r="H48" s="22" t="str">
+      <c r="H48" s="23" t="str">
         <f t="shared" si="4"/>
         <v/>
       </c>
       <c r="I48" s="22" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="1"/>
         <v/>
       </c>
       <c r="J48" s="22"/>
@@ -2829,16 +2789,16 @@
       <c r="M48" s="22"/>
       <c r="N48" s="22"/>
       <c r="O48" s="22"/>
-      <c r="P48" s="22" t="str">
-        <f t="shared" si="6"/>
-        <v/>
-      </c>
-      <c r="Q48" s="22" t="str">
-        <f t="shared" si="7"/>
-        <v/>
-      </c>
-    </row>
-    <row r="49" s="14" customFormat="1" ht="13.5" spans="1:17">
+      <c r="P48" s="23" t="str">
+        <f t="shared" si="5"/>
+        <v/>
+      </c>
+      <c r="Q48" s="23" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+    </row>
+    <row r="49" s="14" customFormat="1" spans="1:17">
       <c r="A49" s="21"/>
       <c r="B49" s="22"/>
       <c r="C49" s="22"/>
@@ -2846,12 +2806,12 @@
       <c r="E49" s="22"/>
       <c r="F49" s="22"/>
       <c r="G49" s="22"/>
-      <c r="H49" s="22" t="str">
+      <c r="H49" s="23" t="str">
         <f t="shared" si="4"/>
         <v/>
       </c>
       <c r="I49" s="22" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="1"/>
         <v/>
       </c>
       <c r="J49" s="22"/>
@@ -2860,16 +2820,16 @@
       <c r="M49" s="22"/>
       <c r="N49" s="22"/>
       <c r="O49" s="22"/>
-      <c r="P49" s="22" t="str">
-        <f t="shared" si="6"/>
-        <v/>
-      </c>
-      <c r="Q49" s="22" t="str">
-        <f t="shared" si="7"/>
-        <v/>
-      </c>
-    </row>
-    <row r="50" s="14" customFormat="1" ht="13.5" spans="1:17">
+      <c r="P49" s="23" t="str">
+        <f t="shared" si="5"/>
+        <v/>
+      </c>
+      <c r="Q49" s="23" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+    </row>
+    <row r="50" s="14" customFormat="1" spans="1:17">
       <c r="A50" s="21"/>
       <c r="B50" s="22"/>
       <c r="C50" s="22"/>
@@ -2877,12 +2837,12 @@
       <c r="E50" s="22"/>
       <c r="F50" s="22"/>
       <c r="G50" s="22"/>
-      <c r="H50" s="22" t="str">
+      <c r="H50" s="23" t="str">
         <f t="shared" si="4"/>
         <v/>
       </c>
       <c r="I50" s="22" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="1"/>
         <v/>
       </c>
       <c r="J50" s="22"/>
@@ -2891,16 +2851,16 @@
       <c r="M50" s="22"/>
       <c r="N50" s="22"/>
       <c r="O50" s="22"/>
-      <c r="P50" s="22" t="str">
-        <f t="shared" si="6"/>
-        <v/>
-      </c>
-      <c r="Q50" s="22" t="str">
-        <f t="shared" si="7"/>
-        <v/>
-      </c>
-    </row>
-    <row r="51" s="14" customFormat="1" ht="13.5" spans="1:17">
+      <c r="P50" s="23" t="str">
+        <f t="shared" si="5"/>
+        <v/>
+      </c>
+      <c r="Q50" s="23" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+    </row>
+    <row r="51" s="14" customFormat="1" spans="1:17">
       <c r="A51" s="21"/>
       <c r="B51" s="22"/>
       <c r="C51" s="22"/>
@@ -2908,12 +2868,12 @@
       <c r="E51" s="22"/>
       <c r="F51" s="22"/>
       <c r="G51" s="22"/>
-      <c r="H51" s="22" t="str">
+      <c r="H51" s="23" t="str">
         <f t="shared" si="4"/>
         <v/>
       </c>
       <c r="I51" s="22" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="1"/>
         <v/>
       </c>
       <c r="J51" s="22"/>
@@ -2922,16 +2882,16 @@
       <c r="M51" s="22"/>
       <c r="N51" s="22"/>
       <c r="O51" s="22"/>
-      <c r="P51" s="22" t="str">
-        <f t="shared" si="6"/>
-        <v/>
-      </c>
-      <c r="Q51" s="22" t="str">
-        <f t="shared" si="7"/>
-        <v/>
-      </c>
-    </row>
-    <row r="52" s="14" customFormat="1" ht="13.5" spans="1:17">
+      <c r="P51" s="23" t="str">
+        <f t="shared" si="5"/>
+        <v/>
+      </c>
+      <c r="Q51" s="23" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+    </row>
+    <row r="52" s="14" customFormat="1" spans="1:17">
       <c r="A52" s="21"/>
       <c r="B52" s="22"/>
       <c r="C52" s="22"/>
@@ -2939,12 +2899,12 @@
       <c r="E52" s="22"/>
       <c r="F52" s="22"/>
       <c r="G52" s="22"/>
-      <c r="H52" s="22" t="str">
+      <c r="H52" s="23" t="str">
         <f t="shared" si="4"/>
         <v/>
       </c>
       <c r="I52" s="22" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="1"/>
         <v/>
       </c>
       <c r="J52" s="22"/>
@@ -2953,16 +2913,16 @@
       <c r="M52" s="22"/>
       <c r="N52" s="22"/>
       <c r="O52" s="22"/>
-      <c r="P52" s="22" t="str">
-        <f t="shared" si="6"/>
-        <v/>
-      </c>
-      <c r="Q52" s="22" t="str">
-        <f t="shared" si="7"/>
-        <v/>
-      </c>
-    </row>
-    <row r="53" s="14" customFormat="1" ht="13.5" spans="1:17">
+      <c r="P52" s="23" t="str">
+        <f t="shared" si="5"/>
+        <v/>
+      </c>
+      <c r="Q52" s="23" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+    </row>
+    <row r="53" s="14" customFormat="1" spans="1:17">
       <c r="A53" s="21"/>
       <c r="B53" s="22"/>
       <c r="C53" s="22"/>
@@ -2970,12 +2930,12 @@
       <c r="E53" s="22"/>
       <c r="F53" s="22"/>
       <c r="G53" s="22"/>
-      <c r="H53" s="22" t="str">
+      <c r="H53" s="23" t="str">
         <f t="shared" si="4"/>
         <v/>
       </c>
       <c r="I53" s="22" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="1"/>
         <v/>
       </c>
       <c r="J53" s="22"/>
@@ -2984,16 +2944,16 @@
       <c r="M53" s="22"/>
       <c r="N53" s="22"/>
       <c r="O53" s="22"/>
-      <c r="P53" s="22" t="str">
-        <f t="shared" si="6"/>
-        <v/>
-      </c>
-      <c r="Q53" s="22" t="str">
-        <f t="shared" si="7"/>
-        <v/>
-      </c>
-    </row>
-    <row r="54" s="14" customFormat="1" ht="13.5" spans="1:17">
+      <c r="P53" s="23" t="str">
+        <f t="shared" si="5"/>
+        <v/>
+      </c>
+      <c r="Q53" s="23" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+    </row>
+    <row r="54" s="14" customFormat="1" spans="1:17">
       <c r="A54" s="21"/>
       <c r="B54" s="22"/>
       <c r="C54" s="22"/>
@@ -3001,12 +2961,12 @@
       <c r="E54" s="22"/>
       <c r="F54" s="22"/>
       <c r="G54" s="22"/>
-      <c r="H54" s="22" t="str">
+      <c r="H54" s="23" t="str">
         <f t="shared" si="4"/>
         <v/>
       </c>
       <c r="I54" s="22" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="1"/>
         <v/>
       </c>
       <c r="J54" s="22"/>
@@ -3015,16 +2975,16 @@
       <c r="M54" s="22"/>
       <c r="N54" s="22"/>
       <c r="O54" s="22"/>
-      <c r="P54" s="22" t="str">
-        <f t="shared" si="6"/>
-        <v/>
-      </c>
-      <c r="Q54" s="22" t="str">
-        <f t="shared" si="7"/>
-        <v/>
-      </c>
-    </row>
-    <row r="55" s="14" customFormat="1" ht="13.5" spans="1:17">
+      <c r="P54" s="23" t="str">
+        <f t="shared" si="5"/>
+        <v/>
+      </c>
+      <c r="Q54" s="23" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+    </row>
+    <row r="55" s="14" customFormat="1" spans="1:17">
       <c r="A55" s="21"/>
       <c r="B55" s="22"/>
       <c r="C55" s="22"/>
@@ -3032,12 +2992,12 @@
       <c r="E55" s="22"/>
       <c r="F55" s="22"/>
       <c r="G55" s="22"/>
-      <c r="H55" s="22" t="str">
+      <c r="H55" s="23" t="str">
         <f t="shared" si="4"/>
         <v/>
       </c>
       <c r="I55" s="22" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="1"/>
         <v/>
       </c>
       <c r="J55" s="22"/>
@@ -3046,16 +3006,16 @@
       <c r="M55" s="22"/>
       <c r="N55" s="22"/>
       <c r="O55" s="22"/>
-      <c r="P55" s="22" t="str">
-        <f t="shared" si="6"/>
-        <v/>
-      </c>
-      <c r="Q55" s="22" t="str">
-        <f t="shared" si="7"/>
-        <v/>
-      </c>
-    </row>
-    <row r="56" s="14" customFormat="1" ht="13.5" spans="1:17">
+      <c r="P55" s="23" t="str">
+        <f t="shared" si="5"/>
+        <v/>
+      </c>
+      <c r="Q55" s="23" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+    </row>
+    <row r="56" s="14" customFormat="1" spans="1:17">
       <c r="A56" s="21"/>
       <c r="B56" s="22"/>
       <c r="C56" s="22"/>
@@ -3063,12 +3023,12 @@
       <c r="E56" s="22"/>
       <c r="F56" s="22"/>
       <c r="G56" s="22"/>
-      <c r="H56" s="22" t="str">
+      <c r="H56" s="23" t="str">
         <f t="shared" si="4"/>
         <v/>
       </c>
       <c r="I56" s="22" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="1"/>
         <v/>
       </c>
       <c r="J56" s="22"/>
@@ -3077,16 +3037,16 @@
       <c r="M56" s="22"/>
       <c r="N56" s="22"/>
       <c r="O56" s="22"/>
-      <c r="P56" s="22" t="str">
-        <f t="shared" si="6"/>
-        <v/>
-      </c>
-      <c r="Q56" s="22" t="str">
-        <f t="shared" si="7"/>
-        <v/>
-      </c>
-    </row>
-    <row r="57" s="14" customFormat="1" ht="13.5" spans="1:17">
+      <c r="P56" s="23" t="str">
+        <f t="shared" si="5"/>
+        <v/>
+      </c>
+      <c r="Q56" s="23" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+    </row>
+    <row r="57" s="14" customFormat="1" spans="1:17">
       <c r="A57" s="21"/>
       <c r="B57" s="22"/>
       <c r="C57" s="22"/>
@@ -3094,12 +3054,12 @@
       <c r="E57" s="22"/>
       <c r="F57" s="22"/>
       <c r="G57" s="22"/>
-      <c r="H57" s="22" t="str">
+      <c r="H57" s="23" t="str">
         <f t="shared" si="4"/>
         <v/>
       </c>
       <c r="I57" s="22" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="1"/>
         <v/>
       </c>
       <c r="J57" s="22"/>
@@ -3108,16 +3068,16 @@
       <c r="M57" s="22"/>
       <c r="N57" s="22"/>
       <c r="O57" s="22"/>
-      <c r="P57" s="22" t="str">
-        <f t="shared" si="6"/>
-        <v/>
-      </c>
-      <c r="Q57" s="22" t="str">
-        <f t="shared" si="7"/>
-        <v/>
-      </c>
-    </row>
-    <row r="58" s="14" customFormat="1" ht="13.5" spans="1:17">
+      <c r="P57" s="23" t="str">
+        <f t="shared" si="5"/>
+        <v/>
+      </c>
+      <c r="Q57" s="23" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+    </row>
+    <row r="58" s="14" customFormat="1" spans="1:17">
       <c r="A58" s="21"/>
       <c r="B58" s="22"/>
       <c r="C58" s="22"/>
@@ -3125,12 +3085,12 @@
       <c r="E58" s="22"/>
       <c r="F58" s="22"/>
       <c r="G58" s="22"/>
-      <c r="H58" s="22" t="str">
+      <c r="H58" s="23" t="str">
         <f t="shared" si="4"/>
         <v/>
       </c>
       <c r="I58" s="22" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="1"/>
         <v/>
       </c>
       <c r="J58" s="22"/>
@@ -3139,16 +3099,16 @@
       <c r="M58" s="22"/>
       <c r="N58" s="22"/>
       <c r="O58" s="22"/>
-      <c r="P58" s="22" t="str">
-        <f t="shared" si="6"/>
-        <v/>
-      </c>
-      <c r="Q58" s="22" t="str">
-        <f t="shared" si="7"/>
-        <v/>
-      </c>
-    </row>
-    <row r="59" s="14" customFormat="1" ht="13.5" spans="1:17">
+      <c r="P58" s="23" t="str">
+        <f t="shared" si="5"/>
+        <v/>
+      </c>
+      <c r="Q58" s="23" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+    </row>
+    <row r="59" s="14" customFormat="1" spans="1:17">
       <c r="A59" s="21"/>
       <c r="B59" s="22"/>
       <c r="C59" s="22"/>
@@ -3156,12 +3116,12 @@
       <c r="E59" s="22"/>
       <c r="F59" s="22"/>
       <c r="G59" s="22"/>
-      <c r="H59" s="22" t="str">
+      <c r="H59" s="23" t="str">
         <f t="shared" si="4"/>
         <v/>
       </c>
       <c r="I59" s="22" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="1"/>
         <v/>
       </c>
       <c r="J59" s="22"/>
@@ -3170,16 +3130,16 @@
       <c r="M59" s="22"/>
       <c r="N59" s="22"/>
       <c r="O59" s="22"/>
-      <c r="P59" s="22" t="str">
-        <f t="shared" si="6"/>
-        <v/>
-      </c>
-      <c r="Q59" s="22" t="str">
-        <f t="shared" si="7"/>
-        <v/>
-      </c>
-    </row>
-    <row r="60" s="14" customFormat="1" ht="13.5" spans="1:17">
+      <c r="P59" s="23" t="str">
+        <f t="shared" si="5"/>
+        <v/>
+      </c>
+      <c r="Q59" s="23" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+    </row>
+    <row r="60" s="14" customFormat="1" spans="1:17">
       <c r="A60" s="21"/>
       <c r="B60" s="22"/>
       <c r="C60" s="22"/>
@@ -3187,12 +3147,12 @@
       <c r="E60" s="22"/>
       <c r="F60" s="22"/>
       <c r="G60" s="22"/>
-      <c r="H60" s="22" t="str">
+      <c r="H60" s="23" t="str">
         <f t="shared" si="4"/>
         <v/>
       </c>
       <c r="I60" s="22" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="1"/>
         <v/>
       </c>
       <c r="J60" s="22"/>
@@ -3201,193 +3161,193 @@
       <c r="M60" s="22"/>
       <c r="N60" s="22"/>
       <c r="O60" s="22"/>
-      <c r="P60" s="22" t="str">
-        <f t="shared" si="6"/>
-        <v/>
-      </c>
-      <c r="Q60" s="22" t="str">
-        <f t="shared" si="7"/>
-        <v/>
-      </c>
-    </row>
-    <row r="61" s="14" customFormat="1" ht="13.5" spans="1:17">
+      <c r="P60" s="23" t="str">
+        <f t="shared" si="5"/>
+        <v/>
+      </c>
+      <c r="Q60" s="23" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+    </row>
+    <row r="61" s="14" customFormat="1" spans="1:17">
       <c r="A61" s="21" t="s">
         <v>27</v>
       </c>
-      <c r="B61" s="22" t="str">
-        <f ca="1" t="shared" ref="B61:H61" si="8">IFERROR(COUNTIF(B6:B59,CONCATENATE("&gt;",INDIRECT(ADDRESS(ROW(B66),COLUMN(B66)))+20))+IF(B5&gt;(B66+30),1,0)+IF(B60&gt;(B66+30),1,0),"")</f>
-        <v/>
-      </c>
-      <c r="C61" s="22" t="str">
-        <f ca="1" t="shared" si="8"/>
-        <v/>
-      </c>
-      <c r="D61" s="22" t="str">
-        <f ca="1" t="shared" si="8"/>
-        <v/>
-      </c>
-      <c r="E61" s="22" t="str">
-        <f ca="1" t="shared" si="8"/>
-        <v/>
-      </c>
-      <c r="F61" s="22" t="str">
-        <f ca="1" t="shared" si="8"/>
-        <v/>
-      </c>
-      <c r="G61" s="22" t="str">
-        <f ca="1" t="shared" si="8"/>
-        <v/>
-      </c>
-      <c r="H61" s="22" t="str">
-        <f ca="1" t="shared" si="8"/>
-        <v/>
-      </c>
-      <c r="I61" s="22"/>
-      <c r="J61" s="22" t="str">
-        <f ca="1" t="shared" ref="J61:P61" si="9">IFERROR(COUNTIF(J6:J59,CONCATENATE("&gt;",INDIRECT(ADDRESS(ROW(J66),COLUMN(J66)))+20))+IF(J5&gt;(J66+30),1,0)+IF(J60&gt;(J66+30),1,0),"")</f>
-        <v/>
-      </c>
-      <c r="K61" s="22" t="str">
-        <f ca="1" t="shared" si="9"/>
-        <v/>
-      </c>
-      <c r="L61" s="22" t="str">
-        <f ca="1" t="shared" si="9"/>
-        <v/>
-      </c>
-      <c r="M61" s="22" t="str">
-        <f ca="1" t="shared" si="9"/>
-        <v/>
-      </c>
-      <c r="N61" s="22" t="str">
-        <f ca="1" t="shared" si="9"/>
-        <v/>
-      </c>
-      <c r="O61" s="22" t="str">
-        <f ca="1" t="shared" si="9"/>
-        <v/>
-      </c>
-      <c r="P61" s="22" t="str">
-        <f ca="1" t="shared" si="9"/>
-        <v/>
-      </c>
-      <c r="Q61" s="22"/>
-    </row>
-    <row r="62" s="14" customFormat="1" ht="13.5" spans="1:17">
+      <c r="B61" s="23" t="str">
+        <f ca="1" t="shared" ref="B61:H61" si="6">IFERROR(COUNTIF(B6:B59,CONCATENATE("&gt;",INDIRECT(ADDRESS(ROW(B66),COLUMN(B66)))+20))+IF(B5&gt;(B66+30),1,0)+IF(B60&gt;(B66+30),1,0),"")</f>
+        <v/>
+      </c>
+      <c r="C61" s="23" t="str">
+        <f ca="1" t="shared" si="6"/>
+        <v/>
+      </c>
+      <c r="D61" s="23" t="str">
+        <f ca="1" t="shared" si="6"/>
+        <v/>
+      </c>
+      <c r="E61" s="23" t="str">
+        <f ca="1" t="shared" si="6"/>
+        <v/>
+      </c>
+      <c r="F61" s="23" t="str">
+        <f ca="1" t="shared" si="6"/>
+        <v/>
+      </c>
+      <c r="G61" s="23" t="str">
+        <f ca="1" t="shared" si="6"/>
+        <v/>
+      </c>
+      <c r="H61" s="23" t="str">
+        <f ca="1" t="shared" si="6"/>
+        <v/>
+      </c>
+      <c r="I61" s="23"/>
+      <c r="J61" s="23" t="str">
+        <f ca="1" t="shared" ref="J61:P61" si="7">IFERROR(COUNTIF(J6:J59,CONCATENATE("&gt;",INDIRECT(ADDRESS(ROW(J66),COLUMN(J66)))+20))+IF(J5&gt;(J66+30),1,0)+IF(J60&gt;(J66+30),1,0),"")</f>
+        <v/>
+      </c>
+      <c r="K61" s="23" t="str">
+        <f ca="1" t="shared" si="7"/>
+        <v/>
+      </c>
+      <c r="L61" s="23" t="str">
+        <f ca="1" t="shared" si="7"/>
+        <v/>
+      </c>
+      <c r="M61" s="23" t="str">
+        <f ca="1" t="shared" si="7"/>
+        <v/>
+      </c>
+      <c r="N61" s="23" t="str">
+        <f ca="1" t="shared" si="7"/>
+        <v/>
+      </c>
+      <c r="O61" s="23" t="str">
+        <f ca="1" t="shared" si="7"/>
+        <v/>
+      </c>
+      <c r="P61" s="23" t="str">
+        <f ca="1" t="shared" si="7"/>
+        <v/>
+      </c>
+      <c r="Q61" s="23"/>
+    </row>
+    <row r="62" s="14" customFormat="1" spans="1:17">
       <c r="A62" s="21" t="s">
         <v>28</v>
       </c>
       <c r="B62" s="23" t="str">
-        <f ca="1" t="shared" ref="B62:H62" si="10">IFERROR(COUNTIF(B6:B59,CONCATENATE("&lt;",INDIRECT(ADDRESS(ROW(B66),COLUMN(B66)))-20))+IF(B5&lt;(B66-30),1,0)+IF(B60&lt;(B66-30),1,0),"")</f>
+        <f ca="1" t="shared" ref="B62:H62" si="8">IFERROR(COUNTIF(B6:B59,CONCATENATE("&lt;",INDIRECT(ADDRESS(ROW(B66),COLUMN(B66)))-20))+IF(B5&lt;(B66-30),1,0)+IF(B60&lt;(B66-30),1,0),"")</f>
         <v/>
       </c>
       <c r="C62" s="23" t="str">
-        <f ca="1" t="shared" si="10"/>
+        <f ca="1" t="shared" si="8"/>
         <v/>
       </c>
       <c r="D62" s="23" t="str">
-        <f ca="1" t="shared" si="10"/>
+        <f ca="1" t="shared" si="8"/>
         <v/>
       </c>
       <c r="E62" s="23" t="str">
-        <f ca="1" t="shared" si="10"/>
+        <f ca="1" t="shared" si="8"/>
         <v/>
       </c>
       <c r="F62" s="23" t="str">
-        <f ca="1" t="shared" si="10"/>
+        <f ca="1" t="shared" si="8"/>
         <v/>
       </c>
       <c r="G62" s="23" t="str">
-        <f ca="1" t="shared" si="10"/>
+        <f ca="1" t="shared" si="8"/>
         <v/>
       </c>
       <c r="H62" s="23" t="str">
-        <f ca="1" t="shared" si="10"/>
+        <f ca="1" t="shared" si="8"/>
         <v/>
       </c>
       <c r="I62" s="23"/>
       <c r="J62" s="23" t="str">
-        <f ca="1" t="shared" ref="J62:P62" si="11">IFERROR(COUNTIF(J6:J59,CONCATENATE("&lt;",INDIRECT(ADDRESS(ROW(J66),COLUMN(J66)))-20))+IF(J5&lt;(J66-30),1,0)+IF(J60&lt;(J66-30),1,0),"")</f>
+        <f ca="1" t="shared" ref="J62:P62" si="9">IFERROR(COUNTIF(J6:J59,CONCATENATE("&lt;",INDIRECT(ADDRESS(ROW(J66),COLUMN(J66)))-20))+IF(J5&lt;(J66-30),1,0)+IF(J60&lt;(J66-30),1,0),"")</f>
         <v/>
       </c>
       <c r="K62" s="23" t="str">
-        <f ca="1" t="shared" si="11"/>
+        <f ca="1" t="shared" si="9"/>
         <v/>
       </c>
       <c r="L62" s="23" t="str">
-        <f ca="1" t="shared" si="11"/>
+        <f ca="1" t="shared" si="9"/>
         <v/>
       </c>
       <c r="M62" s="23" t="str">
-        <f ca="1" t="shared" si="11"/>
+        <f ca="1" t="shared" si="9"/>
         <v/>
       </c>
       <c r="N62" s="23" t="str">
-        <f ca="1" t="shared" si="11"/>
+        <f ca="1" t="shared" si="9"/>
         <v/>
       </c>
       <c r="O62" s="23" t="str">
-        <f ca="1" t="shared" si="11"/>
+        <f ca="1" t="shared" si="9"/>
         <v/>
       </c>
       <c r="P62" s="23" t="str">
-        <f ca="1" t="shared" si="11"/>
+        <f ca="1" t="shared" si="9"/>
         <v/>
       </c>
       <c r="Q62" s="23"/>
     </row>
-    <row r="63" s="14" customFormat="1" ht="13.5" spans="1:17">
+    <row r="63" s="14" customFormat="1" spans="1:17">
       <c r="A63" s="21" t="s">
         <v>29</v>
       </c>
       <c r="B63" s="24" t="str">
-        <f ca="1" t="shared" ref="B63:G63" si="12">CONCATENATE("↑",B61,"↓",B62)</f>
+        <f ca="1" t="shared" ref="B63:G63" si="10">CONCATENATE("↑",B61,"↓",B62)</f>
         <v>↑↓</v>
       </c>
       <c r="C63" s="24" t="str">
-        <f ca="1" t="shared" si="12"/>
+        <f ca="1" t="shared" si="10"/>
         <v>↑↓</v>
       </c>
       <c r="D63" s="24" t="str">
-        <f ca="1" t="shared" si="12"/>
+        <f ca="1" t="shared" si="10"/>
         <v>↑↓</v>
       </c>
       <c r="E63" s="24" t="str">
-        <f ca="1" t="shared" si="12"/>
+        <f ca="1" t="shared" si="10"/>
         <v>↑↓</v>
       </c>
       <c r="F63" s="24" t="str">
-        <f ca="1" t="shared" si="12"/>
+        <f ca="1" t="shared" si="10"/>
         <v>↑↓</v>
       </c>
       <c r="G63" s="24" t="str">
-        <f ca="1" t="shared" si="12"/>
+        <f ca="1" t="shared" si="10"/>
         <v>↑↓</v>
       </c>
       <c r="H63" s="24"/>
       <c r="I63" s="24"/>
       <c r="J63" s="24" t="str">
-        <f ca="1" t="shared" ref="J63:O63" si="13">CONCATENATE("↑",J61,"↓",J62)</f>
+        <f ca="1" t="shared" ref="J63:O63" si="11">CONCATENATE("↑",J61,"↓",J62)</f>
         <v>↑↓</v>
       </c>
       <c r="K63" s="24" t="str">
-        <f ca="1" t="shared" si="13"/>
+        <f ca="1" t="shared" si="11"/>
         <v>↑↓</v>
       </c>
       <c r="L63" s="24" t="str">
-        <f ca="1" t="shared" si="13"/>
+        <f ca="1" t="shared" si="11"/>
         <v>↑↓</v>
       </c>
       <c r="M63" s="24" t="str">
-        <f ca="1" t="shared" si="13"/>
+        <f ca="1" t="shared" si="11"/>
         <v>↑↓</v>
       </c>
       <c r="N63" s="24" t="str">
-        <f ca="1" t="shared" si="13"/>
+        <f ca="1" t="shared" si="11"/>
         <v>↑↓</v>
       </c>
       <c r="O63" s="24" t="str">
-        <f ca="1" t="shared" si="13"/>
+        <f ca="1" t="shared" si="11"/>
         <v>↑↓</v>
       </c>
       <c r="P63" s="24" t="s">
@@ -3395,196 +3355,196 @@
       </c>
       <c r="Q63" s="21"/>
     </row>
-    <row r="64" s="14" customFormat="1" ht="13.5" spans="1:17">
+    <row r="64" s="14" customFormat="1" spans="1:17">
       <c r="A64" s="21" t="s">
         <v>31</v>
       </c>
-      <c r="B64" s="22" t="str">
-        <f t="shared" ref="B64:H64" si="14">IF(B5="","",MAX(B5:B60))</f>
-        <v/>
-      </c>
-      <c r="C64" s="22" t="str">
-        <f t="shared" si="14"/>
-        <v/>
-      </c>
-      <c r="D64" s="22" t="str">
-        <f t="shared" si="14"/>
-        <v/>
-      </c>
-      <c r="E64" s="22" t="str">
-        <f t="shared" si="14"/>
-        <v/>
-      </c>
-      <c r="F64" s="22" t="str">
-        <f t="shared" si="14"/>
-        <v/>
-      </c>
-      <c r="G64" s="22" t="str">
-        <f t="shared" si="14"/>
-        <v/>
-      </c>
-      <c r="H64" s="22" t="str">
-        <f t="shared" si="14"/>
-        <v/>
-      </c>
-      <c r="I64" s="22"/>
-      <c r="J64" s="22" t="str">
-        <f t="shared" ref="J64:P64" si="15">IF(J5="","",MAX(J5:J60))</f>
-        <v/>
-      </c>
-      <c r="K64" s="22" t="str">
-        <f t="shared" si="15"/>
-        <v/>
-      </c>
-      <c r="L64" s="22" t="str">
-        <f t="shared" si="15"/>
-        <v/>
-      </c>
-      <c r="M64" s="22" t="str">
-        <f t="shared" si="15"/>
-        <v/>
-      </c>
-      <c r="N64" s="22" t="str">
-        <f t="shared" si="15"/>
-        <v/>
-      </c>
-      <c r="O64" s="22" t="str">
-        <f t="shared" si="15"/>
-        <v/>
-      </c>
-      <c r="P64" s="22" t="str">
-        <f t="shared" si="15"/>
+      <c r="B64" s="23" t="str">
+        <f t="shared" ref="B64:H64" si="12">IF(B5="","",MAX(B5:B60))</f>
+        <v/>
+      </c>
+      <c r="C64" s="23" t="str">
+        <f t="shared" si="12"/>
+        <v/>
+      </c>
+      <c r="D64" s="23" t="str">
+        <f t="shared" si="12"/>
+        <v/>
+      </c>
+      <c r="E64" s="23" t="str">
+        <f t="shared" si="12"/>
+        <v/>
+      </c>
+      <c r="F64" s="23" t="str">
+        <f t="shared" si="12"/>
+        <v/>
+      </c>
+      <c r="G64" s="23" t="str">
+        <f t="shared" si="12"/>
+        <v/>
+      </c>
+      <c r="H64" s="23" t="str">
+        <f t="shared" si="12"/>
+        <v/>
+      </c>
+      <c r="I64" s="23"/>
+      <c r="J64" s="23" t="str">
+        <f t="shared" ref="J64:P64" si="13">IF(J5="","",MAX(J5:J60))</f>
+        <v/>
+      </c>
+      <c r="K64" s="23" t="str">
+        <f t="shared" si="13"/>
+        <v/>
+      </c>
+      <c r="L64" s="23" t="str">
+        <f t="shared" si="13"/>
+        <v/>
+      </c>
+      <c r="M64" s="23" t="str">
+        <f t="shared" si="13"/>
+        <v/>
+      </c>
+      <c r="N64" s="23" t="str">
+        <f t="shared" si="13"/>
+        <v/>
+      </c>
+      <c r="O64" s="23" t="str">
+        <f t="shared" si="13"/>
+        <v/>
+      </c>
+      <c r="P64" s="23" t="str">
+        <f t="shared" si="13"/>
         <v/>
       </c>
       <c r="Q64" s="21"/>
     </row>
-    <row r="65" s="14" customFormat="1" ht="13.5" spans="1:17">
+    <row r="65" s="14" customFormat="1" spans="1:17">
       <c r="A65" s="21" t="s">
         <v>32</v>
       </c>
-      <c r="B65" s="22" t="str">
-        <f t="shared" ref="B65:H65" si="16">IF(B5="","",MIN(B5:B60))</f>
-        <v/>
-      </c>
-      <c r="C65" s="22" t="str">
-        <f t="shared" si="16"/>
-        <v/>
-      </c>
-      <c r="D65" s="22" t="str">
-        <f t="shared" si="16"/>
-        <v/>
-      </c>
-      <c r="E65" s="22" t="str">
-        <f t="shared" si="16"/>
-        <v/>
-      </c>
-      <c r="F65" s="22" t="str">
-        <f t="shared" si="16"/>
-        <v/>
-      </c>
-      <c r="G65" s="22" t="str">
-        <f t="shared" si="16"/>
-        <v/>
-      </c>
-      <c r="H65" s="22" t="str">
-        <f t="shared" si="16"/>
-        <v/>
-      </c>
-      <c r="I65" s="22"/>
-      <c r="J65" s="22" t="str">
-        <f t="shared" ref="J65:P65" si="17">IF(J5="","",MIN(J5:J60))</f>
-        <v/>
-      </c>
-      <c r="K65" s="22" t="str">
-        <f t="shared" si="17"/>
-        <v/>
-      </c>
-      <c r="L65" s="22" t="str">
-        <f t="shared" si="17"/>
-        <v/>
-      </c>
-      <c r="M65" s="22" t="str">
-        <f t="shared" si="17"/>
-        <v/>
-      </c>
-      <c r="N65" s="22" t="str">
-        <f t="shared" si="17"/>
-        <v/>
-      </c>
-      <c r="O65" s="22" t="str">
-        <f t="shared" si="17"/>
-        <v/>
-      </c>
-      <c r="P65" s="22" t="str">
-        <f t="shared" si="17"/>
+      <c r="B65" s="23" t="str">
+        <f t="shared" ref="B65:H65" si="14">IF(B5="","",MIN(B5:B60))</f>
+        <v/>
+      </c>
+      <c r="C65" s="23" t="str">
+        <f t="shared" si="14"/>
+        <v/>
+      </c>
+      <c r="D65" s="23" t="str">
+        <f t="shared" si="14"/>
+        <v/>
+      </c>
+      <c r="E65" s="23" t="str">
+        <f t="shared" si="14"/>
+        <v/>
+      </c>
+      <c r="F65" s="23" t="str">
+        <f t="shared" si="14"/>
+        <v/>
+      </c>
+      <c r="G65" s="23" t="str">
+        <f t="shared" si="14"/>
+        <v/>
+      </c>
+      <c r="H65" s="23" t="str">
+        <f t="shared" si="14"/>
+        <v/>
+      </c>
+      <c r="I65" s="23"/>
+      <c r="J65" s="23" t="str">
+        <f t="shared" ref="J65:P65" si="15">IF(J5="","",MIN(J5:J60))</f>
+        <v/>
+      </c>
+      <c r="K65" s="23" t="str">
+        <f t="shared" si="15"/>
+        <v/>
+      </c>
+      <c r="L65" s="23" t="str">
+        <f t="shared" si="15"/>
+        <v/>
+      </c>
+      <c r="M65" s="23" t="str">
+        <f t="shared" si="15"/>
+        <v/>
+      </c>
+      <c r="N65" s="23" t="str">
+        <f t="shared" si="15"/>
+        <v/>
+      </c>
+      <c r="O65" s="23" t="str">
+        <f t="shared" si="15"/>
+        <v/>
+      </c>
+      <c r="P65" s="23" t="str">
+        <f t="shared" si="15"/>
         <v/>
       </c>
       <c r="Q65" s="21"/>
     </row>
-    <row r="66" s="14" customFormat="1" ht="13.5" spans="1:17">
+    <row r="66" s="14" customFormat="1" spans="1:17">
       <c r="A66" s="21" t="s">
         <v>12</v>
       </c>
       <c r="B66" s="23" t="str">
-        <f t="shared" ref="B66:H66" si="18">IFERROR(INT(AVERAGEIF(B5:B60,"&lt;&gt;0")),"")</f>
+        <f t="shared" ref="B66:H66" si="16">IFERROR(INT(AVERAGEIF(B5:B60,"&lt;&gt;0")),"")</f>
         <v/>
       </c>
       <c r="C66" s="23" t="str">
-        <f t="shared" si="18"/>
+        <f t="shared" si="16"/>
         <v/>
       </c>
       <c r="D66" s="23" t="str">
-        <f t="shared" si="18"/>
+        <f t="shared" si="16"/>
         <v/>
       </c>
       <c r="E66" s="23" t="str">
-        <f t="shared" si="18"/>
+        <f t="shared" si="16"/>
         <v/>
       </c>
       <c r="F66" s="23" t="str">
-        <f t="shared" si="18"/>
+        <f t="shared" si="16"/>
         <v/>
       </c>
       <c r="G66" s="23" t="str">
-        <f t="shared" si="18"/>
+        <f t="shared" si="16"/>
         <v/>
       </c>
       <c r="H66" s="23" t="str">
-        <f t="shared" si="18"/>
+        <f t="shared" si="16"/>
         <v/>
       </c>
       <c r="I66" s="23"/>
       <c r="J66" s="23" t="str">
-        <f t="shared" ref="J66:P66" si="19">IFERROR(INT(AVERAGEIF(J5:J60,"&lt;&gt;0")),"")</f>
+        <f t="shared" ref="J66:P66" si="17">IFERROR(INT(AVERAGEIF(J5:J60,"&lt;&gt;0")),"")</f>
         <v/>
       </c>
       <c r="K66" s="23" t="str">
-        <f t="shared" si="19"/>
+        <f t="shared" si="17"/>
         <v/>
       </c>
       <c r="L66" s="23" t="str">
-        <f t="shared" si="19"/>
+        <f t="shared" si="17"/>
         <v/>
       </c>
       <c r="M66" s="23" t="str">
-        <f t="shared" si="19"/>
+        <f t="shared" si="17"/>
         <v/>
       </c>
       <c r="N66" s="23" t="str">
-        <f t="shared" si="19"/>
+        <f t="shared" si="17"/>
         <v/>
       </c>
       <c r="O66" s="23" t="str">
-        <f t="shared" si="19"/>
+        <f t="shared" si="17"/>
         <v/>
       </c>
       <c r="P66" s="23" t="str">
-        <f t="shared" si="19"/>
-        <v/>
-      </c>
-      <c r="Q66" s="28"/>
-    </row>
-    <row r="67" s="14" customFormat="1" ht="13.5" spans="1:17">
+        <f t="shared" si="17"/>
+        <v/>
+      </c>
+      <c r="Q66" s="21"/>
+    </row>
+    <row r="67" s="14" customFormat="1" spans="1:17">
       <c r="A67" s="21" t="s">
         <v>33</v>
       </c>
@@ -3609,7 +3569,7 @@
       <c r="H67" s="21">
         <v>1250</v>
       </c>
-      <c r="I67" s="22"/>
+      <c r="I67" s="23"/>
       <c r="J67" s="21">
         <v>1290</v>
       </c>
@@ -3633,73 +3593,73 @@
       </c>
       <c r="Q67" s="21"/>
     </row>
-    <row r="68" s="14" customFormat="1" ht="13.5" spans="1:17">
+    <row r="68" s="14" customFormat="1" spans="1:17">
       <c r="A68" s="21" t="s">
         <v>34</v>
       </c>
       <c r="B68" s="21" t="str">
-        <f t="shared" ref="B68:H68" si="20">IFERROR(IF(ABS(B66-B67)&gt;7,1,0),"")</f>
+        <f t="shared" ref="B68:H68" si="18">IFERROR(IF(ABS(B66-B67)&gt;7,1,0),"")</f>
         <v/>
       </c>
       <c r="C68" s="21" t="str">
-        <f t="shared" si="20"/>
+        <f t="shared" si="18"/>
         <v/>
       </c>
       <c r="D68" s="21" t="str">
-        <f t="shared" si="20"/>
+        <f t="shared" si="18"/>
         <v/>
       </c>
       <c r="E68" s="21" t="str">
-        <f t="shared" si="20"/>
+        <f t="shared" si="18"/>
         <v/>
       </c>
       <c r="F68" s="21" t="str">
-        <f t="shared" si="20"/>
+        <f t="shared" si="18"/>
         <v/>
       </c>
       <c r="G68" s="21" t="str">
-        <f t="shared" si="20"/>
+        <f t="shared" si="18"/>
         <v/>
       </c>
       <c r="H68" s="21" t="str">
-        <f t="shared" si="20"/>
+        <f t="shared" si="18"/>
         <v/>
       </c>
       <c r="I68" s="21"/>
       <c r="J68" s="21" t="str">
-        <f t="shared" ref="J68:P68" si="21">IFERROR(IF(ABS(J66-J67)&gt;7,1,0),"")</f>
+        <f t="shared" ref="J68:P68" si="19">IFERROR(IF(ABS(J66-J67)&gt;7,1,0),"")</f>
         <v/>
       </c>
       <c r="K68" s="21" t="str">
-        <f t="shared" si="21"/>
+        <f t="shared" si="19"/>
         <v/>
       </c>
       <c r="L68" s="21" t="str">
-        <f t="shared" si="21"/>
+        <f t="shared" si="19"/>
         <v/>
       </c>
       <c r="M68" s="21" t="str">
-        <f t="shared" si="21"/>
+        <f t="shared" si="19"/>
         <v/>
       </c>
       <c r="N68" s="21" t="str">
-        <f t="shared" si="21"/>
+        <f t="shared" si="19"/>
         <v/>
       </c>
       <c r="O68" s="21" t="str">
-        <f t="shared" si="21"/>
+        <f t="shared" si="19"/>
         <v/>
       </c>
       <c r="P68" s="21" t="str">
-        <f t="shared" si="21"/>
+        <f t="shared" si="19"/>
         <v/>
       </c>
       <c r="Q68" s="21"/>
     </row>
-    <row r="69" s="14" customFormat="1" ht="13.5" spans="9:9">
+    <row r="69" s="14" customFormat="1" spans="9:9">
       <c r="I69" s="27"/>
     </row>
-    <row r="70" s="14" customFormat="1" ht="13.5" spans="3:12">
+    <row r="70" s="14" customFormat="1" spans="3:12">
       <c r="C70" s="21"/>
       <c r="D70" s="21" t="s">
         <v>35</v>
@@ -3723,7 +3683,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="71" s="14" customFormat="1" ht="13.5" spans="3:12">
+    <row r="71" s="14" customFormat="1" spans="3:12">
       <c r="C71" s="21" t="s">
         <v>37</v>
       </c>
@@ -3736,7 +3696,7 @@
         <v/>
       </c>
       <c r="F71" s="26" t="str">
-        <f ca="1" t="shared" ref="F71:F73" si="22">IFERROR(AVERAGE(D71:E71),"")</f>
+        <f ca="1">IFERROR(AVERAGE(D71:E71),"")</f>
         <v/>
       </c>
       <c r="G71" s="26"/>
@@ -3753,11 +3713,11 @@
         <v/>
       </c>
       <c r="L71" s="21" t="str">
-        <f t="shared" ref="L71:L73" si="23">IFERROR(AVERAGE(J71:K71),"")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="72" s="14" customFormat="1" ht="13.5" spans="3:12">
+        <f>IFERROR(AVERAGE(J71:K71),"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="72" s="14" customFormat="1" spans="3:12">
       <c r="C72" s="21" t="s">
         <v>39</v>
       </c>
@@ -3770,7 +3730,7 @@
         <v/>
       </c>
       <c r="F72" s="26" t="str">
-        <f ca="1" t="shared" si="22"/>
+        <f ca="1">IFERROR(AVERAGE(D72:E72),"")</f>
         <v/>
       </c>
       <c r="G72" s="21"/>
@@ -3787,11 +3747,11 @@
         <v/>
       </c>
       <c r="L72" s="21" t="str">
-        <f t="shared" si="23"/>
-        <v/>
-      </c>
-    </row>
-    <row r="73" s="14" customFormat="1" ht="13.5" spans="3:12">
+        <f>IFERROR(AVERAGE(J72:K72),"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="73" s="14" customFormat="1" spans="3:12">
       <c r="C73" s="21" t="s">
         <v>41</v>
       </c>
@@ -3804,7 +3764,7 @@
         <v/>
       </c>
       <c r="F73" s="26" t="str">
-        <f ca="1" t="shared" si="22"/>
+        <f ca="1">IFERROR(AVERAGE(D73:E73),"")</f>
         <v/>
       </c>
       <c r="G73" s="21"/>
@@ -3821,30 +3781,30 @@
         <v/>
       </c>
       <c r="L73" s="21" t="str">
-        <f t="shared" si="23"/>
-        <v/>
-      </c>
-    </row>
-    <row r="74" s="14" customFormat="1" ht="13.5" spans="3:12">
-      <c r="C74" s="22" t="s">
+        <f>IFERROR(AVERAGE(J73:K73),"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="74" s="14" customFormat="1" spans="3:12">
+      <c r="C74" s="23" t="s">
         <v>43</v>
       </c>
-      <c r="D74" s="22"/>
-      <c r="E74" s="22"/>
-      <c r="F74" s="22" t="str">
+      <c r="D74" s="23"/>
+      <c r="E74" s="23"/>
+      <c r="F74" s="23" t="str">
         <f ca="1">IFERROR((56*2-H$61-H$62-P$61-P$62)/(56*2),"")</f>
         <v/>
       </c>
-      <c r="G74" s="22"/>
-      <c r="H74" s="22"/>
-      <c r="I74" s="22" t="s">
+      <c r="G74" s="23"/>
+      <c r="H74" s="23"/>
+      <c r="I74" s="23" t="s">
         <v>44</v>
       </c>
       <c r="J74" s="26"/>
-      <c r="K74" s="22"/>
-      <c r="L74" s="26">
-        <f>IFERROR((2*6-SUM(B68:P68))/(2*6),"")</f>
-        <v>1</v>
+      <c r="K74" s="23"/>
+      <c r="L74" s="26" t="str">
+        <f>IFERROR((COUNT(B68:G68,J68:O68)-SUM(B68:P68))/COUNT(B68:G68,J68:O68),"")</f>
+        <v/>
       </c>
     </row>
   </sheetData>
@@ -3853,294 +3813,344 @@
     <mergeCell ref="J2:O2"/>
   </mergeCells>
   <conditionalFormatting sqref="B5">
-    <cfRule type="cellIs" dxfId="0" priority="70" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="0" priority="81" operator="lessThan">
+      <formula>$B$66-30</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="1" priority="82" operator="greaterThan">
       <formula>$B$66+30</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="1" priority="69" operator="lessThan">
-      <formula>$B$66-30</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C5">
-    <cfRule type="cellIs" dxfId="0" priority="66" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="0" priority="77" operator="lessThan">
+      <formula>$C$66-30</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="1" priority="78" operator="greaterThan">
       <formula>$C$66+30</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="1" priority="65" operator="lessThan">
-      <formula>$C$66-30</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D5">
-    <cfRule type="cellIs" dxfId="0" priority="64" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="0" priority="75" operator="lessThan">
+      <formula>$D$66-30</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="1" priority="76" operator="greaterThan">
       <formula>$D$66+30</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="1" priority="63" operator="lessThan">
-      <formula>$D$66-30</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E5">
-    <cfRule type="cellIs" dxfId="0" priority="62" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="0" priority="73" operator="lessThan">
+      <formula>$E$66-30</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="1" priority="74" operator="greaterThan">
       <formula>$E$66+30</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="1" priority="61" operator="lessThan">
-      <formula>$E$66-30</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F5">
-    <cfRule type="cellIs" dxfId="0" priority="60" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="0" priority="71" operator="lessThan">
+      <formula>$F$66-30</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="1" priority="72" operator="greaterThan">
       <formula>$F$66+30</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="1" priority="59" operator="lessThan">
-      <formula>$F$66-30</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G5">
-    <cfRule type="cellIs" dxfId="0" priority="58" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="0" priority="69" operator="lessThan">
+      <formula>$G$66-30</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="1" priority="70" operator="greaterThan">
       <formula>$G$66+30</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="1" priority="57" operator="lessThan">
-      <formula>$G$66-30</formula>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H5">
+    <cfRule type="cellIs" dxfId="2" priority="12" operator="greaterThan">
+      <formula>$H$66+30</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="0" priority="11" operator="lessThan">
+      <formula>$H$66-30</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J5">
-    <cfRule type="cellIs" dxfId="0" priority="36" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="0" priority="47" operator="lessThan">
+      <formula>$J$66-30</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="1" priority="48" operator="greaterThan">
       <formula>$J$66+30</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="1" priority="35" operator="lessThan">
-      <formula>$J$66-30</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K5">
-    <cfRule type="cellIs" dxfId="0" priority="34" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="0" priority="45" operator="lessThan">
+      <formula>$K$66-30</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="1" priority="46" operator="greaterThan">
       <formula>$K$66+30</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="1" priority="33" operator="lessThan">
-      <formula>$K$66-30</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L5">
-    <cfRule type="cellIs" dxfId="0" priority="32" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="0" priority="43" operator="lessThan">
+      <formula>$L$66-30</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="1" priority="44" operator="greaterThan">
       <formula>$L$66+30</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="1" priority="31" operator="lessThan">
-      <formula>$L$66-30</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="M5">
-    <cfRule type="cellIs" dxfId="0" priority="30" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="0" priority="41" operator="lessThan">
+      <formula>$M$66-30</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="1" priority="42" operator="greaterThan">
       <formula>$M$66+30</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="1" priority="29" operator="lessThan">
-      <formula>$M$66-30</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="N5">
-    <cfRule type="cellIs" dxfId="0" priority="28" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="0" priority="39" operator="lessThan">
+      <formula>$N$66-30</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="1" priority="40" operator="greaterThan">
       <formula>$N$66+30</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="1" priority="27" operator="lessThan">
-      <formula>$N$66-30</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="O5">
-    <cfRule type="cellIs" dxfId="0" priority="26" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="0" priority="37" operator="lessThan">
+      <formula>$O$66-30</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="1" priority="38" operator="greaterThan">
       <formula>$O$66+30</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="1" priority="25" operator="lessThan">
-      <formula>$O$66-30</formula>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="P5">
+    <cfRule type="cellIs" dxfId="2" priority="6" operator="greaterThan">
+      <formula>$P$66+30</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="0" priority="5" operator="lessThan">
+      <formula>$P$66-30</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B60">
-    <cfRule type="cellIs" dxfId="0" priority="68" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="0" priority="79" operator="lessThan">
+      <formula>$B$66-30</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="1" priority="80" operator="greaterThan">
       <formula>$B$66+30</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="1" priority="67" operator="lessThan">
-      <formula>$B$66-30</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C60">
-    <cfRule type="cellIs" dxfId="0" priority="54" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="0" priority="65" operator="lessThan">
+      <formula>$C$66-30</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="1" priority="66" operator="greaterThan">
       <formula>$C$66+30</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="1" priority="53" operator="lessThan">
-      <formula>$C$66-30</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D60">
-    <cfRule type="cellIs" dxfId="0" priority="52" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="0" priority="63" operator="lessThan">
+      <formula>$D$66-30</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="1" priority="64" operator="greaterThan">
       <formula>$D$66+30</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="1" priority="51" operator="lessThan">
-      <formula>$D$66-30</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E60">
-    <cfRule type="cellIs" dxfId="0" priority="50" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="0" priority="61" operator="lessThan">
+      <formula>$E$66-30</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="1" priority="62" operator="greaterThan">
       <formula>$E$66+30</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="1" priority="49" operator="lessThan">
-      <formula>$E$66-30</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F60">
-    <cfRule type="cellIs" dxfId="0" priority="48" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="0" priority="59" operator="lessThan">
+      <formula>$F$66-30</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="1" priority="60" operator="greaterThan">
       <formula>$F$66+30</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="1" priority="47" operator="lessThan">
-      <formula>$F$66-30</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G60">
-    <cfRule type="cellIs" dxfId="0" priority="46" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="0" priority="57" operator="lessThan">
+      <formula>$G$66-30</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="1" priority="58" operator="greaterThan">
       <formula>$G$66+30</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="1" priority="45" operator="lessThan">
-      <formula>$G$66-30</formula>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H60">
+    <cfRule type="cellIs" dxfId="2" priority="10" operator="greaterThan">
+      <formula>$H$66+30</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="0" priority="9" operator="lessThan">
+      <formula>$H$66-30</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J60">
-    <cfRule type="cellIs" dxfId="0" priority="24" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="0" priority="35" operator="lessThan">
+      <formula>$J$66-30</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="1" priority="36" operator="greaterThan">
       <formula>$J$66+30</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="1" priority="23" operator="lessThan">
-      <formula>$J$66-30</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K60">
-    <cfRule type="cellIs" dxfId="0" priority="22" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="0" priority="33" operator="lessThan">
+      <formula>$K$66-30</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="1" priority="34" operator="greaterThan">
       <formula>$K$66+30</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="1" priority="21" operator="lessThan">
-      <formula>$K$66-30</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L60">
-    <cfRule type="cellIs" dxfId="0" priority="20" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="0" priority="31" operator="lessThan">
+      <formula>$L$66-30</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="1" priority="32" operator="greaterThan">
       <formula>$L$66+30</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="1" priority="19" operator="lessThan">
-      <formula>$L$66-30</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="M60">
-    <cfRule type="cellIs" dxfId="0" priority="18" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="0" priority="29" operator="lessThan">
+      <formula>$M$66-30</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="1" priority="30" operator="greaterThan">
       <formula>$M$66+30</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="1" priority="17" operator="lessThan">
-      <formula>$M$66-30</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="N60">
-    <cfRule type="cellIs" dxfId="0" priority="16" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="0" priority="27" operator="lessThan">
+      <formula>$N$66-30</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="1" priority="28" operator="greaterThan">
       <formula>$N$66+30</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="1" priority="15" operator="lessThan">
-      <formula>$N$66-30</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="O60">
-    <cfRule type="cellIs" dxfId="0" priority="14" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="0" priority="25" operator="lessThan">
+      <formula>$O$66-30</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="1" priority="26" operator="greaterThan">
       <formula>$O$66+30</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="1" priority="13" operator="lessThan">
-      <formula>$O$66-30</formula>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="P60">
+    <cfRule type="cellIs" dxfId="2" priority="4" operator="greaterThan">
+      <formula>$P$66+30</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="0" priority="3" operator="lessThan">
+      <formula>$P$66-30</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B6:B59">
-    <cfRule type="cellIs" dxfId="0" priority="72" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="0" priority="83" operator="lessThan">
+      <formula>$B$66-20</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="1" priority="84" operator="greaterThan">
       <formula>$B$66+20</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="1" priority="71" operator="lessThan">
-      <formula>$B$66-20</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C6:C59">
-    <cfRule type="cellIs" dxfId="0" priority="56" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="0" priority="67" operator="lessThan">
+      <formula>$C$66-20</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="1" priority="68" operator="greaterThan">
       <formula>$C$66+20</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="1" priority="55" operator="lessThan">
-      <formula>$C$66-20</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D6:D59">
-    <cfRule type="cellIs" dxfId="0" priority="44" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="0" priority="55" operator="lessThan">
+      <formula>$D$66-20</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="1" priority="56" operator="greaterThan">
       <formula>$D$66+20</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="1" priority="43" operator="lessThan">
-      <formula>$D$66-20</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E6:E59">
-    <cfRule type="cellIs" dxfId="0" priority="42" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="0" priority="53" operator="lessThan">
+      <formula>$E$66-20</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="1" priority="54" operator="greaterThan">
       <formula>$E$66+20</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="1" priority="41" operator="lessThan">
-      <formula>$E$66-20</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F6:F59">
-    <cfRule type="cellIs" dxfId="0" priority="40" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="0" priority="51" operator="lessThan">
+      <formula>$F$66-20</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="1" priority="52" operator="greaterThan">
       <formula>$F$66+20</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="1" priority="39" operator="lessThan">
-      <formula>$F$66-20</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G6:G59">
-    <cfRule type="cellIs" dxfId="0" priority="38" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="0" priority="49" operator="lessThan">
+      <formula>$G$66-20</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="1" priority="50" operator="greaterThan">
       <formula>$G$66+20</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="1" priority="37" operator="lessThan">
-      <formula>$G$66-20</formula>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H6:H59">
+    <cfRule type="cellIs" dxfId="2" priority="8" operator="greaterThan">
+      <formula>$H$66+20</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="0" priority="7" operator="lessThan">
+      <formula>$H$66-20</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J6:J59">
-    <cfRule type="cellIs" dxfId="0" priority="12" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="0" priority="23" operator="lessThan">
+      <formula>$J$66-20</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="1" priority="24" operator="greaterThan">
       <formula>$J$66+20</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="1" priority="11" operator="lessThan">
-      <formula>$J$66-20</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K6:K59">
-    <cfRule type="cellIs" dxfId="0" priority="10" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="0" priority="21" operator="lessThan">
+      <formula>$K$66-20</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="1" priority="22" operator="greaterThan">
       <formula>$K$66+20</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="1" priority="9" operator="lessThan">
-      <formula>$K$66-20</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L6:L59">
-    <cfRule type="cellIs" dxfId="0" priority="8" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="0" priority="19" operator="lessThan">
+      <formula>$L$66-20</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="1" priority="20" operator="greaterThan">
       <formula>$L$66+20</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="1" priority="7" operator="lessThan">
-      <formula>$L$66-20</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="M6:M59">
-    <cfRule type="cellIs" dxfId="0" priority="6" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="0" priority="17" operator="lessThan">
+      <formula>$M$66-20</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="1" priority="18" operator="greaterThan">
       <formula>$M$66+20</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="1" priority="5" operator="lessThan">
-      <formula>$M$66-20</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="N6:N59">
-    <cfRule type="cellIs" dxfId="0" priority="4" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="0" priority="15" operator="lessThan">
+      <formula>$N$66-20</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="1" priority="16" operator="greaterThan">
       <formula>$N$66+20</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="1" priority="3" operator="lessThan">
-      <formula>$N$66-20</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="O6:O59">
-    <cfRule type="cellIs" dxfId="0" priority="2" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="0" priority="13" operator="lessThan">
+      <formula>$O$66-20</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="1" priority="14" operator="greaterThan">
       <formula>$O$66+20</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="1" priority="1" operator="lessThan">
-      <formula>$O$66-20</formula>
-    </cfRule>
   </conditionalFormatting>
-  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <conditionalFormatting sqref="P6:P59">
+    <cfRule type="cellIs" dxfId="2" priority="2" operator="greaterThan">
+      <formula>$P$66+20</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="0" priority="1" operator="lessThan">
+      <formula>$P$66-20</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <printOptions gridLines="1"/>
+  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.5" footer="0.5"/>
+  <pageSetup paperSize="9" orientation="portrait"/>
   <headerFooter/>
 </worksheet>
 </file>
@@ -4150,27 +4160,27 @@
   <sheetPr/>
   <dimension ref="A1:AQ61"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
       <selection activeCell="B1" sqref="B1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
   <cols>
     <col min="1" max="1" width="9" style="1"/>
-    <col min="2" max="2" width="11.3666666666667" style="1" customWidth="1"/>
+    <col min="2" max="2" width="11.3333333333333" style="1" customWidth="1"/>
     <col min="3" max="35" width="9" style="1"/>
-    <col min="36" max="37" width="8.725" style="1" customWidth="1"/>
-    <col min="38" max="38" width="17.6333333333333" style="1" customWidth="1"/>
-    <col min="39" max="39" width="4.26666666666667" style="2" customWidth="1"/>
-    <col min="40" max="40" width="17.6333333333333" style="1" customWidth="1"/>
-    <col min="41" max="41" width="4.45" style="1" customWidth="1"/>
-    <col min="42" max="42" width="17.6333333333333" style="1" customWidth="1"/>
-    <col min="43" max="43" width="4.26666666666667" style="2" customWidth="1"/>
-    <col min="44" max="44" width="17.6333333333333" style="1" customWidth="1"/>
+    <col min="36" max="37" width="8.75" style="1" customWidth="1"/>
+    <col min="38" max="38" width="17.6666666666667" style="1" customWidth="1"/>
+    <col min="39" max="39" width="4.25" style="2" customWidth="1"/>
+    <col min="40" max="40" width="17.6666666666667" style="1" customWidth="1"/>
+    <col min="41" max="41" width="4.41666666666667" style="1" customWidth="1"/>
+    <col min="42" max="42" width="17.6666666666667" style="1" customWidth="1"/>
+    <col min="43" max="43" width="4.25" style="2" customWidth="1"/>
+    <col min="44" max="44" width="17.6666666666667" style="1" customWidth="1"/>
     <col min="45" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" s="1" customFormat="1" spans="1:33">
+    <row r="1" s="1" customFormat="1" ht="15" spans="1:33">
       <c r="A1" s="3" t="s">
         <v>1</v>
       </c>
@@ -4209,7 +4219,7 @@
       <c r="AF1" s="3"/>
       <c r="AG1" s="3"/>
     </row>
-    <row r="2" s="1" customFormat="1" spans="1:33">
+    <row r="2" s="1" customFormat="1" ht="15" spans="1:33">
       <c r="A2" s="4" t="s">
         <v>0</v>
       </c>
@@ -4251,7 +4261,7 @@
       <c r="AF2" s="6"/>
       <c r="AG2" s="12"/>
     </row>
-    <row r="3" s="1" customFormat="1" spans="1:33">
+    <row r="3" s="1" customFormat="1" ht="15" spans="1:33">
       <c r="A3" s="4" t="s">
         <v>5</v>
       </c>
@@ -6757,7 +6767,33 @@
     <mergeCell ref="Q2:R2"/>
     <mergeCell ref="AB2:AG2"/>
   </mergeCells>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555556" footer="0.511805555555556"/>
+  <conditionalFormatting sqref="B4:AF4">
+    <cfRule type="cellIs" dxfId="3" priority="4" operator="greaterThan">
+      <formula>30</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="4" priority="3" operator="lessThan">
+      <formula>-30</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B59:AF59">
+    <cfRule type="cellIs" dxfId="4" priority="1" operator="lessThan">
+      <formula>-30</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="3" priority="2" operator="greaterThan">
+      <formula>30</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B5:AF58">
+    <cfRule type="cellIs" dxfId="3" priority="6" operator="greaterThan">
+      <formula>20</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="4" priority="5" operator="lessThan">
+      <formula>-20</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <printOptions gridLines="1"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageSetup paperSize="9" orientation="portrait"/>
   <headerFooter/>
 </worksheet>
 </file>
@@ -6767,27 +6803,27 @@
   <sheetPr/>
   <dimension ref="A1:AQ63"/>
   <sheetViews>
-    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="E25" sqref="E25"/>
+    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="B1" sqref="B1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
   <cols>
     <col min="1" max="1" width="9" style="1"/>
-    <col min="2" max="2" width="11.3666666666667" style="1" customWidth="1"/>
+    <col min="2" max="2" width="11.3333333333333" style="1" customWidth="1"/>
     <col min="3" max="35" width="9" style="1"/>
-    <col min="36" max="37" width="8.725" style="1" customWidth="1"/>
-    <col min="38" max="38" width="17.6333333333333" style="1" customWidth="1"/>
-    <col min="39" max="39" width="4.26666666666667" style="2" customWidth="1"/>
-    <col min="40" max="40" width="17.6333333333333" style="1" customWidth="1"/>
-    <col min="41" max="41" width="4.45" style="1" customWidth="1"/>
-    <col min="42" max="42" width="17.6333333333333" style="1" customWidth="1"/>
-    <col min="43" max="43" width="4.26666666666667" style="2" customWidth="1"/>
-    <col min="44" max="44" width="17.6333333333333" style="1" customWidth="1"/>
+    <col min="36" max="37" width="8.75" style="1" customWidth="1"/>
+    <col min="38" max="38" width="17.6666666666667" style="1" customWidth="1"/>
+    <col min="39" max="39" width="4.25" style="2" customWidth="1"/>
+    <col min="40" max="40" width="17.6666666666667" style="1" customWidth="1"/>
+    <col min="41" max="41" width="4.41666666666667" style="1" customWidth="1"/>
+    <col min="42" max="42" width="17.6666666666667" style="1" customWidth="1"/>
+    <col min="43" max="43" width="4.25" style="2" customWidth="1"/>
+    <col min="44" max="44" width="17.6666666666667" style="1" customWidth="1"/>
     <col min="45" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:33">
+    <row r="1" ht="15" spans="1:33">
       <c r="A1" s="3" t="s">
         <v>1</v>
       </c>
@@ -6826,7 +6862,7 @@
       <c r="AF1" s="3"/>
       <c r="AG1" s="3"/>
     </row>
-    <row r="2" spans="1:43">
+    <row r="2" ht="15" spans="1:43">
       <c r="A2" s="4" t="s">
         <v>0</v>
       </c>
@@ -6870,7 +6906,7 @@
       <c r="AM2" s="1"/>
       <c r="AQ2" s="1"/>
     </row>
-    <row r="3" spans="1:43">
+    <row r="3" ht="15" spans="1:43">
       <c r="A3" s="4" t="s">
         <v>5</v>
       </c>
@@ -7009,7 +7045,7 @@
       <c r="AE4" s="8"/>
       <c r="AF4" s="8"/>
       <c r="AG4" s="8" t="e">
-        <f t="shared" ref="AG4:AG59" si="0">AVERAGE(B4:AF4)</f>
+        <f t="shared" ref="AG4:AG35" si="0">AVERAGE(B4:AF4)</f>
         <v>#DIV/0!</v>
       </c>
       <c r="AM4" s="1"/>
@@ -8315,7 +8351,7 @@
       <c r="AE36" s="8"/>
       <c r="AF36" s="8"/>
       <c r="AG36" s="8" t="e">
-        <f t="shared" si="0"/>
+        <f t="shared" ref="AG36:AG59" si="1">AVERAGE(B36:AF36)</f>
         <v>#DIV/0!</v>
       </c>
     </row>
@@ -8355,7 +8391,7 @@
       <c r="AE37" s="8"/>
       <c r="AF37" s="8"/>
       <c r="AG37" s="8" t="e">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>#DIV/0!</v>
       </c>
     </row>
@@ -8395,7 +8431,7 @@
       <c r="AE38" s="8"/>
       <c r="AF38" s="8"/>
       <c r="AG38" s="8" t="e">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>#DIV/0!</v>
       </c>
     </row>
@@ -8435,7 +8471,7 @@
       <c r="AE39" s="8"/>
       <c r="AF39" s="8"/>
       <c r="AG39" s="8" t="e">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>#DIV/0!</v>
       </c>
     </row>
@@ -8475,7 +8511,7 @@
       <c r="AE40" s="8"/>
       <c r="AF40" s="8"/>
       <c r="AG40" s="8" t="e">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>#DIV/0!</v>
       </c>
     </row>
@@ -8515,7 +8551,7 @@
       <c r="AE41" s="8"/>
       <c r="AF41" s="8"/>
       <c r="AG41" s="8" t="e">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>#DIV/0!</v>
       </c>
     </row>
@@ -8555,7 +8591,7 @@
       <c r="AE42" s="8"/>
       <c r="AF42" s="8"/>
       <c r="AG42" s="8" t="e">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>#DIV/0!</v>
       </c>
     </row>
@@ -8595,7 +8631,7 @@
       <c r="AE43" s="8"/>
       <c r="AF43" s="8"/>
       <c r="AG43" s="8" t="e">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>#DIV/0!</v>
       </c>
     </row>
@@ -8635,7 +8671,7 @@
       <c r="AE44" s="8"/>
       <c r="AF44" s="8"/>
       <c r="AG44" s="8" t="e">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>#DIV/0!</v>
       </c>
     </row>
@@ -8675,7 +8711,7 @@
       <c r="AE45" s="8"/>
       <c r="AF45" s="8"/>
       <c r="AG45" s="8" t="e">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>#DIV/0!</v>
       </c>
     </row>
@@ -8715,7 +8751,7 @@
       <c r="AE46" s="8"/>
       <c r="AF46" s="8"/>
       <c r="AG46" s="8" t="e">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>#DIV/0!</v>
       </c>
     </row>
@@ -8755,7 +8791,7 @@
       <c r="AE47" s="8"/>
       <c r="AF47" s="8"/>
       <c r="AG47" s="8" t="e">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>#DIV/0!</v>
       </c>
     </row>
@@ -8795,7 +8831,7 @@
       <c r="AE48" s="8"/>
       <c r="AF48" s="8"/>
       <c r="AG48" s="8" t="e">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>#DIV/0!</v>
       </c>
     </row>
@@ -8835,7 +8871,7 @@
       <c r="AE49" s="8"/>
       <c r="AF49" s="8"/>
       <c r="AG49" s="8" t="e">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>#DIV/0!</v>
       </c>
       <c r="AM49" s="1"/>
@@ -8877,7 +8913,7 @@
       <c r="AE50" s="8"/>
       <c r="AF50" s="8"/>
       <c r="AG50" s="8" t="e">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>#DIV/0!</v>
       </c>
       <c r="AM50" s="1"/>
@@ -8919,7 +8955,7 @@
       <c r="AE51" s="8"/>
       <c r="AF51" s="8"/>
       <c r="AG51" s="8" t="e">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>#DIV/0!</v>
       </c>
       <c r="AM51" s="1"/>
@@ -8961,7 +8997,7 @@
       <c r="AE52" s="8"/>
       <c r="AF52" s="8"/>
       <c r="AG52" s="8" t="e">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>#DIV/0!</v>
       </c>
       <c r="AM52" s="1"/>
@@ -9003,7 +9039,7 @@
       <c r="AE53" s="8"/>
       <c r="AF53" s="8"/>
       <c r="AG53" s="8" t="e">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>#DIV/0!</v>
       </c>
       <c r="AM53" s="1"/>
@@ -9045,7 +9081,7 @@
       <c r="AE54" s="8"/>
       <c r="AF54" s="8"/>
       <c r="AG54" s="8" t="e">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>#DIV/0!</v>
       </c>
       <c r="AM54" s="1"/>
@@ -9087,7 +9123,7 @@
       <c r="AE55" s="8"/>
       <c r="AF55" s="8"/>
       <c r="AG55" s="8" t="e">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>#DIV/0!</v>
       </c>
       <c r="AM55" s="1"/>
@@ -9129,7 +9165,7 @@
       <c r="AE56" s="8"/>
       <c r="AF56" s="8"/>
       <c r="AG56" s="8" t="e">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>#DIV/0!</v>
       </c>
       <c r="AM56" s="1"/>
@@ -9171,7 +9207,7 @@
       <c r="AE57" s="8"/>
       <c r="AF57" s="8"/>
       <c r="AG57" s="8" t="e">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>#DIV/0!</v>
       </c>
       <c r="AM57" s="1"/>
@@ -9213,7 +9249,7 @@
       <c r="AE58" s="8"/>
       <c r="AF58" s="8"/>
       <c r="AG58" s="8" t="e">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>#DIV/0!</v>
       </c>
       <c r="AM58" s="1"/>
@@ -9255,7 +9291,7 @@
       <c r="AE59" s="8"/>
       <c r="AF59" s="8"/>
       <c r="AG59" s="8" t="e">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>#DIV/0!</v>
       </c>
       <c r="AM59" s="1"/>
@@ -9266,127 +9302,127 @@
         <v>48</v>
       </c>
       <c r="B60" s="8" t="str">
-        <f t="shared" ref="B60:AF60" si="1">IF(B4="","",AVERAGE(B4:B59))</f>
+        <f t="shared" ref="B60:AF60" si="2">IF(B4="","",AVERAGE(B4:B59))</f>
         <v/>
       </c>
       <c r="C60" s="8" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v/>
       </c>
       <c r="D60" s="8" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v/>
       </c>
       <c r="E60" s="8" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v/>
       </c>
       <c r="F60" s="8" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v/>
       </c>
       <c r="G60" s="8" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v/>
       </c>
       <c r="H60" s="8" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v/>
       </c>
       <c r="I60" s="8" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v/>
       </c>
       <c r="J60" s="8" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v/>
       </c>
       <c r="K60" s="8" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v/>
       </c>
       <c r="L60" s="8" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v/>
       </c>
       <c r="M60" s="8" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v/>
       </c>
       <c r="N60" s="8" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v/>
       </c>
       <c r="O60" s="8" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v/>
       </c>
       <c r="P60" s="8" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v/>
       </c>
       <c r="Q60" s="8" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v/>
       </c>
       <c r="R60" s="8" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v/>
       </c>
       <c r="S60" s="8" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v/>
       </c>
       <c r="T60" s="8" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v/>
       </c>
       <c r="U60" s="8" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v/>
       </c>
       <c r="V60" s="8" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v/>
       </c>
       <c r="W60" s="8" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v/>
       </c>
       <c r="X60" s="8" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v/>
       </c>
       <c r="Y60" s="8" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v/>
       </c>
       <c r="Z60" s="8" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v/>
       </c>
       <c r="AA60" s="8" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v/>
       </c>
       <c r="AB60" s="8" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v/>
       </c>
       <c r="AC60" s="8" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v/>
       </c>
       <c r="AD60" s="8" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v/>
       </c>
       <c r="AE60" s="8" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v/>
       </c>
       <c r="AF60" s="8" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v/>
       </c>
       <c r="AG60" s="7"/>
@@ -9412,7 +9448,33 @@
     <mergeCell ref="Q2:R2"/>
     <mergeCell ref="AB2:AG2"/>
   </mergeCells>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555556" footer="0.511805555555556"/>
+  <conditionalFormatting sqref="B4:AF4">
+    <cfRule type="cellIs" dxfId="3" priority="4" operator="greaterThan">
+      <formula>30</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="4" priority="3" operator="lessThan">
+      <formula>-30</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B59:AF59">
+    <cfRule type="cellIs" dxfId="3" priority="6" operator="greaterThan">
+      <formula>30</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="4" priority="5" operator="lessThan">
+      <formula>-30</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B5:AF58">
+    <cfRule type="cellIs" dxfId="3" priority="2" operator="greaterThan">
+      <formula>20</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="4" priority="1" operator="lessThan">
+      <formula>-20</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <printOptions gridLines="1"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageSetup paperSize="9" orientation="portrait"/>
   <headerFooter/>
 </worksheet>
 </file>
@@ -9423,37 +9485,14 @@
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E11" sqref="E11"/>
+      <selection activeCell="H14" sqref="H14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
   <sheetData/>
-  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <headerFooter/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
-  <dimension ref="A1:B1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1:B1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="1"/>
-  <sheetData>
-    <row r="1" spans="1:2">
-      <c r="A1" t="s">
-        <v>50</v>
-      </c>
-      <c r="B1">
-        <v>12</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <printOptions gridLines="1"/>
+  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.5" footer="0.5"/>
+  <pageSetup paperSize="9" orientation="portrait"/>
   <headerFooter/>
 </worksheet>
 </file>